--- a/cs696_scraping/structured/revenue clean data/2015_revenue_clean.xlsx
+++ b/cs696_scraping/structured/revenue clean data/2015_revenue_clean.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kajal\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Umass spring 20\696\KT\CS696\cs696_scraping\structured\revenue clean data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{095BD48B-C5B6-4DA1-B813-8FB38ADDD009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F6C4AD-D595-424F-A78F-F2048C8F2077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AEB3969C-8F01-4148-A956-291901493361}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="425">
   <si>
     <t>year</t>
   </si>
@@ -116,9 +116,6 @@
     <t>NKE</t>
   </si>
   <si>
-    <t>AVGO</t>
-  </si>
-  <si>
     <t>ORCL</t>
   </si>
   <si>
@@ -386,9 +383,6 @@
     <t>SNPS</t>
   </si>
   <si>
-    <t>FTV</t>
-  </si>
-  <si>
     <t>XLNX</t>
   </si>
   <si>
@@ -452,9 +446,6 @@
     <t>KSU</t>
   </si>
   <si>
-    <t>INVH</t>
-  </si>
-  <si>
     <t>OMC</t>
   </si>
   <si>
@@ -464,12 +455,6 @@
     <t>BMRN</t>
   </si>
   <si>
-    <t>PAYC</t>
-  </si>
-  <si>
-    <t>MAA</t>
-  </si>
-  <si>
     <t>CTL</t>
   </si>
   <si>
@@ -542,9 +527,6 @@
     <t>INCY</t>
   </si>
   <si>
-    <t>LW</t>
-  </si>
-  <si>
     <t>DRE</t>
   </si>
   <si>
@@ -611,9 +593,6 @@
     <t>TRMB</t>
   </si>
   <si>
-    <t>TTD</t>
-  </si>
-  <si>
     <t>UHS</t>
   </si>
   <si>
@@ -653,9 +632,6 @@
     <t>FBHS</t>
   </si>
   <si>
-    <t>COUP</t>
-  </si>
-  <si>
     <t>MRO</t>
   </si>
   <si>
@@ -674,12 +650,6 @@
     <t>WHR</t>
   </si>
   <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>VST</t>
-  </si>
-  <si>
     <t>ALB</t>
   </si>
   <si>
@@ -749,9 +719,6 @@
     <t>KIM</t>
   </si>
   <si>
-    <t>BIO</t>
-  </si>
-  <si>
     <t>AIV</t>
   </si>
   <si>
@@ -767,12 +734,6 @@
     <t>RS</t>
   </si>
   <si>
-    <t>QGEN</t>
-  </si>
-  <si>
-    <t>GNTX</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
@@ -815,9 +776,6 @@
     <t>DEI</t>
   </si>
   <si>
-    <t>NRZ</t>
-  </si>
-  <si>
     <t>IVZ</t>
   </si>
   <si>
@@ -830,9 +788,6 @@
     <t>FAF</t>
   </si>
   <si>
-    <t>MDB</t>
-  </si>
-  <si>
     <t>CACI</t>
   </si>
   <si>
@@ -878,9 +833,6 @@
     <t>SABR</t>
   </si>
   <si>
-    <t>AYX</t>
-  </si>
-  <si>
     <t>LEG</t>
   </si>
   <si>
@@ -923,9 +875,6 @@
     <t>EPR</t>
   </si>
   <si>
-    <t>MSG</t>
-  </si>
-  <si>
     <t>NYT</t>
   </si>
   <si>
@@ -971,9 +920,6 @@
     <t>MTG</t>
   </si>
   <si>
-    <t>JBGS</t>
-  </si>
-  <si>
     <t>IPGP</t>
   </si>
   <si>
@@ -989,9 +935,6 @@
     <t>HEI</t>
   </si>
   <si>
-    <t>GDI</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
@@ -1004,9 +947,6 @@
     <t>HP</t>
   </si>
   <si>
-    <t>BHF</t>
-  </si>
-  <si>
     <t>CACC</t>
   </si>
   <si>
@@ -1073,9 +1013,6 @@
     <t>CHH</t>
   </si>
   <si>
-    <t>FND</t>
-  </si>
-  <si>
     <t>CFX</t>
   </si>
   <si>
@@ -1091,9 +1028,6 @@
     <t>MAC</t>
   </si>
   <si>
-    <t>MUR</t>
-  </si>
-  <si>
     <t>PEGA</t>
   </si>
   <si>
@@ -1121,9 +1055,6 @@
     <t>DKS</t>
   </si>
   <si>
-    <t>OLLI</t>
-  </si>
-  <si>
     <t>FLR</t>
   </si>
   <si>
@@ -1190,9 +1121,6 @@
     <t>CNA</t>
   </si>
   <si>
-    <t>SNDR</t>
-  </si>
-  <si>
     <t>ANAT</t>
   </si>
   <si>
@@ -1202,9 +1130,6 @@
     <t>RRC</t>
   </si>
   <si>
-    <t>CDEV</t>
-  </si>
-  <si>
     <t>WMT</t>
   </si>
   <si>
@@ -1214,9 +1139,6 @@
     <t>CHTR</t>
   </si>
   <si>
-    <t>PLD</t>
-  </si>
-  <si>
     <t>AIG</t>
   </si>
   <si>
@@ -1244,15 +1166,9 @@
     <t>FOXA</t>
   </si>
   <si>
-    <t>OKTA</t>
-  </si>
-  <si>
     <t>HSIC</t>
   </si>
   <si>
-    <t>BFAM</t>
-  </si>
-  <si>
     <t>ZEN</t>
   </si>
   <si>
@@ -1274,9 +1190,6 @@
     <t>VOYA</t>
   </si>
   <si>
-    <t>ATUS</t>
-  </si>
-  <si>
     <t>ZAYO</t>
   </si>
   <si>
@@ -1310,9 +1223,6 @@
     <t>MIC</t>
   </si>
   <si>
-    <t>CPA</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -1361,12 +1271,6 @@
     <t>VER</t>
   </si>
   <si>
-    <t>DOX</t>
-  </si>
-  <si>
-    <t>IRM</t>
-  </si>
-  <si>
     <t>CZR</t>
   </si>
   <si>
@@ -1404,9 +1308,6 @@
   </si>
   <si>
     <t>LEN</t>
-  </si>
-  <si>
-    <t>AOS</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1349,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1758,13 +1670,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04A5339-ED55-4C51-9D76-3E4C006F38B6}">
-  <dimension ref="A1:D455"/>
+  <dimension ref="A1:D422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D455"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423:XFD423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1967,7 +1882,7 @@
         <v>2015</v>
       </c>
       <c r="B15" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="C15">
         <v>104169</v>
@@ -1981,7 +1896,7 @@
         <v>2015</v>
       </c>
       <c r="B16" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="C16">
         <v>1613103</v>
@@ -2138,10 +2053,10 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>1649338</v>
+        <v>1341439</v>
       </c>
       <c r="D27">
-        <v>30601000000</v>
+        <v>38226000000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -2152,10 +2067,10 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>1341439</v>
+        <v>1318605</v>
       </c>
       <c r="D28">
-        <v>38226000000</v>
+        <v>4046025000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -2166,10 +2081,10 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>1318605</v>
+        <v>804328</v>
       </c>
       <c r="D29">
-        <v>4046025000</v>
+        <v>25281000000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -2180,10 +2095,10 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>804328</v>
+        <v>1053507</v>
       </c>
       <c r="D30">
-        <v>25281000000</v>
+        <v>4771516000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -2194,10 +2109,10 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>1053507</v>
+        <v>64803</v>
       </c>
       <c r="D31">
-        <v>4771516000</v>
+        <v>153290000000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -2208,10 +2123,10 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>64803</v>
+        <v>882095</v>
       </c>
       <c r="D32">
-        <v>153290000000</v>
+        <v>32639000000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -2219,13 +2134,13 @@
         <v>2015</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>367</v>
       </c>
       <c r="C33">
-        <v>882095</v>
+        <v>1091667</v>
       </c>
       <c r="D33">
-        <v>32639000000</v>
+        <v>2512000000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -2233,13 +2148,13 @@
         <v>2015</v>
       </c>
       <c r="B34" t="s">
-        <v>392</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>1091667</v>
+        <v>10795</v>
       </c>
       <c r="D34">
-        <v>2512000000</v>
+        <v>10282000000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -2250,10 +2165,10 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>10795</v>
+        <v>701221</v>
       </c>
       <c r="D35">
-        <v>10282000000</v>
+        <v>37876000000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -2264,10 +2179,10 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>701221</v>
+        <v>1156375</v>
       </c>
       <c r="D36">
-        <v>37876000000</v>
+        <v>3326800000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -2278,10 +2193,10 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>1156375</v>
+        <v>109198</v>
       </c>
       <c r="D37">
-        <v>3326800000</v>
+        <v>30944938000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -2292,10 +2207,10 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>109198</v>
+        <v>1156039</v>
       </c>
       <c r="D38">
-        <v>30944938000</v>
+        <v>79156500000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -2306,10 +2221,10 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>1156039</v>
+        <v>64040</v>
       </c>
       <c r="D39">
-        <v>79156500000</v>
+        <v>1374000000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -2320,10 +2235,10 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>64040</v>
+        <v>896878</v>
       </c>
       <c r="D40">
-        <v>1374000000</v>
+        <v>4192000000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -2334,10 +2249,10 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>896878</v>
+        <v>92122</v>
       </c>
       <c r="D41">
-        <v>4192000000</v>
+        <v>17489000000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -2348,10 +2263,10 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>92122</v>
+        <v>1326160</v>
       </c>
       <c r="D42">
-        <v>17489000000</v>
+        <v>23459000000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -2362,10 +2277,10 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>1326160</v>
+        <v>715957</v>
       </c>
       <c r="D43">
-        <v>23459000000</v>
+        <v>11683000000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -2376,10 +2291,10 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>715957</v>
+        <v>798354</v>
       </c>
       <c r="D44">
-        <v>11683000000</v>
+        <v>5254000000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -2390,10 +2305,10 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>798354</v>
+        <v>1035267</v>
       </c>
       <c r="D45">
-        <v>5254000000</v>
+        <v>2384400000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -2401,13 +2316,13 @@
         <v>2015</v>
       </c>
       <c r="B46" t="s">
-        <v>393</v>
+        <v>45</v>
       </c>
       <c r="C46">
-        <v>1045609</v>
+        <v>21665</v>
       </c>
       <c r="D46">
-        <v>5254000000</v>
+        <v>16034000000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -2415,13 +2330,13 @@
         <v>2015</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47">
-        <v>1035267</v>
+        <v>1047122</v>
       </c>
       <c r="D47">
-        <v>2384400000</v>
+        <v>23247000000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -2429,13 +2344,13 @@
         <v>2015</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>400</v>
       </c>
       <c r="C48">
-        <v>21665</v>
+        <v>1578845</v>
       </c>
       <c r="D48">
-        <v>16034000000</v>
+        <v>15071000000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -2446,10 +2361,10 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>1047122</v>
+        <v>723125</v>
       </c>
       <c r="D49">
-        <v>23247000000</v>
+        <v>16192000000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -2457,13 +2372,13 @@
         <v>2015</v>
       </c>
       <c r="B50" t="s">
-        <v>430</v>
+        <v>48</v>
       </c>
       <c r="C50">
-        <v>1578845</v>
+        <v>875320</v>
       </c>
       <c r="D50">
-        <v>15071000000</v>
+        <v>1032336000</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -2471,13 +2386,13 @@
         <v>2015</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51">
-        <v>723125</v>
+        <v>875045</v>
       </c>
       <c r="D51">
-        <v>16192000000</v>
+        <v>10763800000</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -2485,13 +2400,13 @@
         <v>2015</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52">
-        <v>875320</v>
+        <v>1123360</v>
       </c>
       <c r="D52">
-        <v>1032336000</v>
+        <v>2773718000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -2499,13 +2414,13 @@
         <v>2015</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53">
-        <v>875045</v>
+        <v>49826</v>
       </c>
       <c r="D53">
-        <v>10763800000</v>
+        <v>13405000000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -2513,13 +2428,13 @@
         <v>2015</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54">
-        <v>1123360</v>
+        <v>885725</v>
       </c>
       <c r="D54">
-        <v>2773718000</v>
+        <v>7477000000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -2527,13 +2442,13 @@
         <v>2015</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55">
-        <v>49826</v>
+        <v>6951</v>
       </c>
       <c r="D55">
-        <v>13405000000</v>
+        <v>9659000000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -2541,13 +2456,13 @@
         <v>2015</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56">
-        <v>885725</v>
+        <v>27419</v>
       </c>
       <c r="D56">
-        <v>7477000000</v>
+        <v>73785000000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -2555,13 +2470,13 @@
         <v>2015</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57">
-        <v>6951</v>
+        <v>702165</v>
       </c>
       <c r="D57">
-        <v>9659000000</v>
+        <v>10511000000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -2569,13 +2484,13 @@
         <v>2015</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58">
-        <v>27419</v>
+        <v>316709</v>
       </c>
       <c r="D58">
-        <v>73785000000</v>
+        <v>6380000000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -2583,13 +2498,13 @@
         <v>2015</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C59">
-        <v>702165</v>
+        <v>315293</v>
       </c>
       <c r="D59">
-        <v>10511000000</v>
+        <v>11682000000</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -2597,13 +2512,13 @@
         <v>2015</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C60">
-        <v>316709</v>
+        <v>823768</v>
       </c>
       <c r="D60">
-        <v>6380000000</v>
+        <v>12961000000</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -2611,13 +2526,13 @@
         <v>2015</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61">
-        <v>315293</v>
+        <v>2488</v>
       </c>
       <c r="D61">
-        <v>11682000000</v>
+        <v>3991000000</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -2625,13 +2540,13 @@
         <v>2015</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C62">
-        <v>823768</v>
+        <v>1101239</v>
       </c>
       <c r="D62">
-        <v>12961000000</v>
+        <v>2725867000</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -2639,13 +2554,13 @@
         <v>2015</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>2488</v>
+        <v>1571949</v>
       </c>
       <c r="D63">
-        <v>3991000000</v>
+        <v>4682000000</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -2653,13 +2568,13 @@
         <v>2015</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C64">
-        <v>1101239</v>
+        <v>4904</v>
       </c>
       <c r="D64">
-        <v>2725867000</v>
+        <v>16453200000</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -2667,13 +2582,13 @@
         <v>2015</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65">
-        <v>1571949</v>
+        <v>49071</v>
       </c>
       <c r="D65">
-        <v>4682000000</v>
+        <v>13361000000</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -2681,13 +2596,13 @@
         <v>2015</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C66">
-        <v>4904</v>
+        <v>1099800</v>
       </c>
       <c r="D66">
-        <v>16453200000</v>
+        <v>2493700000</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -2695,13 +2610,13 @@
         <v>2015</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67">
-        <v>49071</v>
+        <v>707549</v>
       </c>
       <c r="D67">
-        <v>13361000000</v>
+        <v>5259312000</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -2709,13 +2624,13 @@
         <v>2015</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>368</v>
       </c>
       <c r="C68">
-        <v>1099800</v>
+        <v>5272</v>
       </c>
       <c r="D68">
-        <v>2493700000</v>
+        <v>58327000000</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -2726,10 +2641,10 @@
         <v>66</v>
       </c>
       <c r="C69">
-        <v>707549</v>
+        <v>718877</v>
       </c>
       <c r="D69">
-        <v>5259312000</v>
+        <v>4664000000</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -2737,13 +2652,13 @@
         <v>2015</v>
       </c>
       <c r="B70" t="s">
-        <v>394</v>
+        <v>67</v>
       </c>
       <c r="C70">
-        <v>5272</v>
+        <v>769397</v>
       </c>
       <c r="D70">
-        <v>58327000000</v>
+        <v>2504100000</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -2751,13 +2666,13 @@
         <v>2015</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C71">
-        <v>718877</v>
+        <v>10456</v>
       </c>
       <c r="D71">
-        <v>4664000000</v>
+        <v>9968000000</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -2765,13 +2680,13 @@
         <v>2015</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C72">
-        <v>769397</v>
+        <v>1110803</v>
       </c>
       <c r="D72">
-        <v>2504100000</v>
+        <v>2219762000</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -2779,13 +2694,13 @@
         <v>2015</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C73">
-        <v>10456</v>
+        <v>1059556</v>
       </c>
       <c r="D73">
-        <v>9968000000</v>
+        <v>3484500000</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -2793,13 +2708,13 @@
         <v>2015</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C74">
-        <v>1110803</v>
+        <v>6281</v>
       </c>
       <c r="D74">
-        <v>2219762000</v>
+        <v>3435092000</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -2807,13 +2722,13 @@
         <v>2015</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C75">
-        <v>1059556</v>
+        <v>1551182</v>
       </c>
       <c r="D75">
-        <v>3484500000</v>
+        <v>20855000000</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2821,13 +2736,13 @@
         <v>2015</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C76">
-        <v>6281</v>
+        <v>1506307</v>
       </c>
       <c r="D76">
-        <v>3435092000</v>
+        <v>14403000000</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -2835,13 +2750,13 @@
         <v>2015</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C77">
-        <v>1551182</v>
+        <v>1048286</v>
       </c>
       <c r="D77">
-        <v>20855000000</v>
+        <v>14486000000</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -2849,13 +2764,13 @@
         <v>2015</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C78">
-        <v>1506307</v>
+        <v>899051</v>
       </c>
       <c r="D78">
-        <v>14403000000</v>
+        <v>35653000000</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -2863,13 +2778,13 @@
         <v>2015</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79">
-        <v>1048286</v>
+        <v>1099219</v>
       </c>
       <c r="D79">
-        <v>14486000000</v>
+        <v>69951000000</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -2877,13 +2792,13 @@
         <v>2015</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C80">
-        <v>899051</v>
+        <v>1137774</v>
       </c>
       <c r="D80">
-        <v>35653000000</v>
+        <v>57119000000</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -2891,13 +2806,13 @@
         <v>2015</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C81">
-        <v>1099219</v>
+        <v>1071739</v>
       </c>
       <c r="D81">
-        <v>69951000000</v>
+        <v>22760000000</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2905,13 +2820,13 @@
         <v>2015</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C82">
-        <v>1137774</v>
+        <v>797468</v>
       </c>
       <c r="D82">
-        <v>57119000000</v>
+        <v>12480000000</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -2919,13 +2834,13 @@
         <v>2015</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83">
-        <v>1071739</v>
+        <v>72903</v>
       </c>
       <c r="D83">
-        <v>22760000000</v>
+        <v>11024486000</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -2933,13 +2848,13 @@
         <v>2015</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="C84">
-        <v>797468</v>
+        <v>1048911</v>
       </c>
       <c r="D84">
-        <v>12480000000</v>
+        <v>47453000000</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -2950,10 +2865,10 @@
         <v>81</v>
       </c>
       <c r="C85">
-        <v>72903</v>
+        <v>1058290</v>
       </c>
       <c r="D85">
-        <v>11024486000</v>
+        <v>12416000000</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -2961,13 +2876,13 @@
         <v>2015</v>
       </c>
       <c r="B86" t="s">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="C86">
-        <v>1048911</v>
+        <v>27904</v>
       </c>
       <c r="D86">
-        <v>47453000000</v>
+        <v>40704000000</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -2975,13 +2890,13 @@
         <v>2015</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C87">
-        <v>1058290</v>
+        <v>1041061</v>
       </c>
       <c r="D87">
-        <v>12416000000</v>
+        <v>13105000000</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -2989,13 +2904,13 @@
         <v>2015</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>401</v>
       </c>
       <c r="C88">
-        <v>27904</v>
+        <v>1585689</v>
       </c>
       <c r="D88">
-        <v>40704000000</v>
+        <v>11272000000</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -3006,10 +2921,10 @@
         <v>84</v>
       </c>
       <c r="C89">
-        <v>1041061</v>
+        <v>712515</v>
       </c>
       <c r="D89">
-        <v>13105000000</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -3017,13 +2932,13 @@
         <v>2015</v>
       </c>
       <c r="B90" t="s">
-        <v>431</v>
+        <v>85</v>
       </c>
       <c r="C90">
-        <v>1585689</v>
+        <v>1039684</v>
       </c>
       <c r="D90">
-        <v>11272000000</v>
+        <v>7763206000</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -3031,13 +2946,13 @@
         <v>2015</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C91">
-        <v>712515</v>
+        <v>898173</v>
       </c>
       <c r="D91">
-        <v>4515</v>
+        <v>7966674000</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -3045,13 +2960,13 @@
         <v>2015</v>
       </c>
       <c r="B92" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C92">
-        <v>1039684</v>
+        <v>833444</v>
       </c>
       <c r="D92">
-        <v>7763206000</v>
+        <v>9902000000</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -3059,13 +2974,13 @@
         <v>2015</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C93">
-        <v>898173</v>
+        <v>1260221</v>
       </c>
       <c r="D93">
-        <v>7966674000</v>
+        <v>2707115000</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -3073,13 +2988,13 @@
         <v>2015</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>402</v>
       </c>
       <c r="C94">
-        <v>833444</v>
+        <v>1327811</v>
       </c>
       <c r="D94">
-        <v>9902000000</v>
+        <v>1162346000</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -3090,10 +3005,10 @@
         <v>89</v>
       </c>
       <c r="C95">
-        <v>1260221</v>
+        <v>906107</v>
       </c>
       <c r="D95">
-        <v>2707115000</v>
+        <v>2744965000</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -3101,13 +3016,13 @@
         <v>2015</v>
       </c>
       <c r="B96" t="s">
-        <v>432</v>
+        <v>90</v>
       </c>
       <c r="C96">
-        <v>1327811</v>
+        <v>68505</v>
       </c>
       <c r="D96">
-        <v>1162346000</v>
+        <v>5695000000</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -3115,13 +3030,13 @@
         <v>2015</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C97">
-        <v>906107</v>
+        <v>788784</v>
       </c>
       <c r="D97">
-        <v>2744965000</v>
+        <v>10415000000</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -3129,13 +3044,13 @@
         <v>2015</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C98">
-        <v>68505</v>
+        <v>72741</v>
       </c>
       <c r="D98">
-        <v>5695000000</v>
+        <v>7954827000</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -3143,13 +3058,13 @@
         <v>2015</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C99">
-        <v>788784</v>
+        <v>1034054</v>
       </c>
       <c r="D99">
-        <v>10415000000</v>
+        <v>1638474000</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -3157,13 +3072,13 @@
         <v>2015</v>
       </c>
       <c r="B100" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C100">
-        <v>72741</v>
+        <v>1140536</v>
       </c>
       <c r="D100">
-        <v>7954827000</v>
+        <v>3829000000</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -3171,13 +3086,13 @@
         <v>2015</v>
       </c>
       <c r="B101" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C101">
-        <v>1034054</v>
+        <v>1175454</v>
       </c>
       <c r="D101">
-        <v>1638474000</v>
+        <v>1702865000</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -3185,13 +3100,13 @@
         <v>2015</v>
       </c>
       <c r="B102" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C102">
-        <v>1140536</v>
+        <v>927653</v>
       </c>
       <c r="D102">
-        <v>3829000000</v>
+        <v>179045</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -3199,13 +3114,13 @@
         <v>2015</v>
       </c>
       <c r="B103" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C103">
-        <v>1175454</v>
+        <v>319201</v>
       </c>
       <c r="D103">
-        <v>1702865000</v>
+        <v>2814049000</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -3213,13 +3128,13 @@
         <v>2015</v>
       </c>
       <c r="B104" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C104">
-        <v>927653</v>
+        <v>827052</v>
       </c>
       <c r="D104">
-        <v>179045</v>
+        <v>11524000000</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -3227,13 +3142,13 @@
         <v>2015</v>
       </c>
       <c r="B105" t="s">
-        <v>98</v>
+        <v>369</v>
       </c>
       <c r="C105">
-        <v>319201</v>
+        <v>922224</v>
       </c>
       <c r="D105">
-        <v>2814049000</v>
+        <v>7669000000</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -3244,10 +3159,10 @@
         <v>99</v>
       </c>
       <c r="C106">
-        <v>827052</v>
+        <v>103379</v>
       </c>
       <c r="D106">
-        <v>11524000000</v>
+        <v>12376744000</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -3255,13 +3170,13 @@
         <v>2015</v>
       </c>
       <c r="B107" t="s">
-        <v>395</v>
+        <v>100</v>
       </c>
       <c r="C107">
-        <v>922224</v>
+        <v>866787</v>
       </c>
       <c r="D107">
-        <v>7669000000</v>
+        <v>10187340000</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -3269,13 +3184,13 @@
         <v>2015</v>
       </c>
       <c r="B108" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C108">
-        <v>103379</v>
+        <v>93556</v>
       </c>
       <c r="D108">
-        <v>12376744000</v>
+        <v>11171800000</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -3283,13 +3198,13 @@
         <v>2015</v>
       </c>
       <c r="B109" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C109">
-        <v>866787</v>
+        <v>1418091</v>
       </c>
       <c r="D109">
-        <v>10187340000</v>
+        <v>2218032000</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -3297,13 +3212,13 @@
         <v>2015</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C110">
-        <v>93556</v>
+        <v>1353283</v>
       </c>
       <c r="D110">
-        <v>11171800000</v>
+        <v>668435000</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -3311,13 +3226,13 @@
         <v>2015</v>
       </c>
       <c r="B111" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C111">
-        <v>1418091</v>
+        <v>827054</v>
       </c>
       <c r="D111">
-        <v>2218032000</v>
+        <v>2147036</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -3325,13 +3240,13 @@
         <v>2015</v>
       </c>
       <c r="B112" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C112">
-        <v>1353283</v>
+        <v>26172</v>
       </c>
       <c r="D112">
-        <v>668435000</v>
+        <v>19110000000</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -3339,13 +3254,13 @@
         <v>2015</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C113">
-        <v>827054</v>
+        <v>936340</v>
       </c>
       <c r="D113">
-        <v>2147036</v>
+        <v>10337000000</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -3353,13 +3268,13 @@
         <v>2015</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C114">
-        <v>26172</v>
+        <v>804753</v>
       </c>
       <c r="D114">
-        <v>19110000000</v>
+        <v>4425267000</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -3367,13 +3282,13 @@
         <v>2015</v>
       </c>
       <c r="B115" t="s">
-        <v>107</v>
+        <v>423</v>
       </c>
       <c r="C115">
-        <v>936340</v>
+        <v>723254</v>
       </c>
       <c r="D115">
-        <v>10337000000</v>
+        <v>4476886000</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -3384,10 +3299,10 @@
         <v>108</v>
       </c>
       <c r="C116">
-        <v>804753</v>
+        <v>1408198</v>
       </c>
       <c r="D116">
-        <v>4425267000</v>
+        <v>272893000</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -3395,13 +3310,13 @@
         <v>2015</v>
       </c>
       <c r="B117" t="s">
-        <v>455</v>
+        <v>109</v>
       </c>
       <c r="C117">
-        <v>723254</v>
+        <v>100493</v>
       </c>
       <c r="D117">
-        <v>4476886000</v>
+        <v>41373000000</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -3409,13 +3324,13 @@
         <v>2015</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C118">
-        <v>1408198</v>
+        <v>1057352</v>
       </c>
       <c r="D118">
-        <v>272893000</v>
+        <v>711764000</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -3423,13 +3338,13 @@
         <v>2015</v>
       </c>
       <c r="B119" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C119">
-        <v>100493</v>
+        <v>943819</v>
       </c>
       <c r="D119">
-        <v>41373000000</v>
+        <v>1678912000</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -3437,13 +3352,13 @@
         <v>2015</v>
       </c>
       <c r="B120" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C120">
-        <v>1057352</v>
+        <v>1013462</v>
       </c>
       <c r="D120">
-        <v>711764000</v>
+        <v>942753000</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -3451,13 +3366,13 @@
         <v>2015</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
+        <v>370</v>
       </c>
       <c r="C121">
-        <v>943819</v>
+        <v>1038357</v>
       </c>
       <c r="D121">
-        <v>1678912000</v>
+        <v>4825000000</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -3468,10 +3383,10 @@
         <v>113</v>
       </c>
       <c r="C122">
-        <v>1013462</v>
+        <v>874716</v>
       </c>
       <c r="D122">
-        <v>942753000</v>
+        <v>1601892000</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -3479,13 +3394,13 @@
         <v>2015</v>
       </c>
       <c r="B123" t="s">
-        <v>396</v>
+        <v>114</v>
       </c>
       <c r="C123">
-        <v>1038357</v>
+        <v>1300514</v>
       </c>
       <c r="D123">
-        <v>4825000000</v>
+        <v>11688461000</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -3493,13 +3408,13 @@
         <v>2015</v>
       </c>
       <c r="B124" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C124">
-        <v>874716</v>
+        <v>883241</v>
       </c>
       <c r="D124">
-        <v>1601892000</v>
+        <v>2242211000</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -3507,13 +3422,13 @@
         <v>2015</v>
       </c>
       <c r="B125" t="s">
-        <v>115</v>
+        <v>371</v>
       </c>
       <c r="C125">
-        <v>1300514</v>
+        <v>1327567</v>
       </c>
       <c r="D125">
-        <v>11688461000</v>
+        <v>283879000</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -3524,10 +3439,10 @@
         <v>116</v>
       </c>
       <c r="C126">
-        <v>883241</v>
+        <v>743988</v>
       </c>
       <c r="D126">
-        <v>2242211000</v>
+        <v>2377344</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -3538,10 +3453,10 @@
         <v>117</v>
       </c>
       <c r="C127">
-        <v>1659166</v>
+        <v>1037540</v>
       </c>
       <c r="D127">
-        <v>2242211000</v>
+        <v>2490821000</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -3549,13 +3464,13 @@
         <v>2015</v>
       </c>
       <c r="B128" t="s">
-        <v>397</v>
+        <v>118</v>
       </c>
       <c r="C128">
-        <v>1327567</v>
+        <v>1489393</v>
       </c>
       <c r="D128">
-        <v>283879000</v>
+        <v>32735000000</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -3563,13 +3478,13 @@
         <v>2015</v>
       </c>
       <c r="B129" t="s">
-        <v>118</v>
+        <v>403</v>
       </c>
       <c r="C129">
-        <v>743988</v>
+        <v>899866</v>
       </c>
       <c r="D129">
-        <v>2377344</v>
+        <v>2604047000</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -3580,10 +3495,10 @@
         <v>119</v>
       </c>
       <c r="C130">
-        <v>1037540</v>
+        <v>47111</v>
       </c>
       <c r="D130">
-        <v>2490821000</v>
+        <v>7386626000</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -3594,10 +3509,10 @@
         <v>120</v>
       </c>
       <c r="C131">
-        <v>1489393</v>
+        <v>740260</v>
       </c>
       <c r="D131">
-        <v>32735000000</v>
+        <v>3286398000</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -3605,13 +3520,13 @@
         <v>2015</v>
       </c>
       <c r="B132" t="s">
-        <v>433</v>
+        <v>121</v>
       </c>
       <c r="C132">
-        <v>899866</v>
+        <v>1093557</v>
       </c>
       <c r="D132">
-        <v>2604047000</v>
+        <v>402000000</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -3619,13 +3534,13 @@
         <v>2015</v>
       </c>
       <c r="B133" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C133">
-        <v>47111</v>
+        <v>1097149</v>
       </c>
       <c r="D133">
-        <v>7386626000</v>
+        <v>845486000</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -3633,13 +3548,13 @@
         <v>2015</v>
       </c>
       <c r="B134" t="s">
-        <v>122</v>
+        <v>372</v>
       </c>
       <c r="C134">
-        <v>740260</v>
+        <v>21076</v>
       </c>
       <c r="D134">
-        <v>3286398000</v>
+        <v>5655000000</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -3650,10 +3565,10 @@
         <v>123</v>
       </c>
       <c r="C135">
-        <v>1093557</v>
+        <v>1060391</v>
       </c>
       <c r="D135">
-        <v>402000000</v>
+        <v>9115000000</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -3664,10 +3579,10 @@
         <v>124</v>
       </c>
       <c r="C136">
-        <v>1097149</v>
+        <v>900075</v>
       </c>
       <c r="D136">
-        <v>845486000</v>
+        <v>1146079000</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -3675,13 +3590,13 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>398</v>
+        <v>125</v>
       </c>
       <c r="C137">
-        <v>21076</v>
+        <v>920522</v>
       </c>
       <c r="D137">
-        <v>5655000000</v>
+        <v>1194407000</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -3689,13 +3604,13 @@
         <v>2015</v>
       </c>
       <c r="B138" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C138">
-        <v>1060391</v>
+        <v>45012</v>
       </c>
       <c r="D138">
-        <v>9115000000</v>
+        <v>23633000000</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -3703,13 +3618,13 @@
         <v>2015</v>
       </c>
       <c r="B139" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C139">
-        <v>900075</v>
+        <v>1402057</v>
       </c>
       <c r="D139">
-        <v>1146079000</v>
+        <v>3418400000</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -3717,13 +3632,13 @@
         <v>2015</v>
       </c>
       <c r="B140" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C140">
-        <v>920522</v>
+        <v>354190</v>
       </c>
       <c r="D140">
-        <v>1194407000</v>
+        <v>5392400000</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -3731,13 +3646,13 @@
         <v>2015</v>
       </c>
       <c r="B141" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C141">
-        <v>45012</v>
+        <v>811156</v>
       </c>
       <c r="D141">
-        <v>23633000000</v>
+        <v>6456000000</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -3745,13 +3660,13 @@
         <v>2015</v>
       </c>
       <c r="B142" t="s">
-        <v>129</v>
+        <v>424</v>
       </c>
       <c r="C142">
-        <v>1402057</v>
+        <v>920760</v>
       </c>
       <c r="D142">
-        <v>3418400000</v>
+        <v>2945567000</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -3762,10 +3677,10 @@
         <v>130</v>
       </c>
       <c r="C143">
-        <v>354190</v>
+        <v>1037646</v>
       </c>
       <c r="D143">
-        <v>5392400000</v>
+        <v>2395447000</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -3773,13 +3688,13 @@
         <v>2015</v>
       </c>
       <c r="B144" t="s">
-        <v>131</v>
+        <v>373</v>
       </c>
       <c r="C144">
-        <v>811156</v>
+        <v>831259</v>
       </c>
       <c r="D144">
-        <v>6456000000</v>
+        <v>15877000000</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -3787,13 +3702,13 @@
         <v>2015</v>
       </c>
       <c r="B145" t="s">
-        <v>456</v>
+        <v>131</v>
       </c>
       <c r="C145">
-        <v>920760</v>
+        <v>920148</v>
       </c>
       <c r="D145">
-        <v>2945567000</v>
+        <v>8680100000</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -3801,13 +3716,13 @@
         <v>2015</v>
       </c>
       <c r="B146" t="s">
-        <v>132</v>
+        <v>404</v>
       </c>
       <c r="C146">
-        <v>1037646</v>
+        <v>96943</v>
       </c>
       <c r="D146">
-        <v>2395447000</v>
+        <v>1809690000</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -3815,13 +3730,13 @@
         <v>2015</v>
       </c>
       <c r="B147" t="s">
-        <v>399</v>
+        <v>132</v>
       </c>
       <c r="C147">
-        <v>831259</v>
+        <v>947484</v>
       </c>
       <c r="D147">
-        <v>15877000000</v>
+        <v>3936590000</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -3832,10 +3747,10 @@
         <v>133</v>
       </c>
       <c r="C148">
-        <v>920148</v>
+        <v>711404</v>
       </c>
       <c r="D148">
-        <v>8680100000</v>
+        <v>1797060000</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -3843,13 +3758,13 @@
         <v>2015</v>
       </c>
       <c r="B149" t="s">
-        <v>434</v>
+        <v>134</v>
       </c>
       <c r="C149">
-        <v>96943</v>
+        <v>1262039</v>
       </c>
       <c r="D149">
-        <v>1809690000</v>
+        <v>1009268000</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -3857,13 +3772,13 @@
         <v>2015</v>
       </c>
       <c r="B150" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C150">
-        <v>947484</v>
+        <v>1058057</v>
       </c>
       <c r="D150">
-        <v>3936590000</v>
+        <v>3706963</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -3871,13 +3786,13 @@
         <v>2015</v>
       </c>
       <c r="B151" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C151">
-        <v>711404</v>
+        <v>54480</v>
       </c>
       <c r="D151">
-        <v>1797060000</v>
+        <v>2418800000</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -3885,13 +3800,13 @@
         <v>2015</v>
       </c>
       <c r="B152" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C152">
-        <v>1262039</v>
+        <v>29989</v>
       </c>
       <c r="D152">
-        <v>1009268000</v>
+        <v>15134400000</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -3899,13 +3814,13 @@
         <v>2015</v>
       </c>
       <c r="B153" t="s">
-        <v>137</v>
+        <v>374</v>
       </c>
       <c r="C153">
-        <v>1058057</v>
+        <v>20286</v>
       </c>
       <c r="D153">
-        <v>3706963</v>
+        <v>5142000000</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -3916,10 +3831,10 @@
         <v>138</v>
       </c>
       <c r="C154">
-        <v>54480</v>
+        <v>789570</v>
       </c>
       <c r="D154">
-        <v>2418800000</v>
+        <v>9190068000</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -3930,10 +3845,10 @@
         <v>139</v>
       </c>
       <c r="C155">
-        <v>1687229</v>
+        <v>1048477</v>
       </c>
       <c r="D155">
-        <v>2418800000</v>
+        <v>889895000</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -3944,10 +3859,10 @@
         <v>140</v>
       </c>
       <c r="C156">
-        <v>29989</v>
+        <v>18926</v>
       </c>
       <c r="D156">
-        <v>15134400000</v>
+        <v>17900000000</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -3955,13 +3870,13 @@
         <v>2015</v>
       </c>
       <c r="B157" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="C157">
-        <v>20286</v>
+        <v>1403568</v>
       </c>
       <c r="D157">
-        <v>5142000000</v>
+        <v>1268295000</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -3972,10 +3887,10 @@
         <v>141</v>
       </c>
       <c r="C158">
-        <v>789570</v>
+        <v>1126328</v>
       </c>
       <c r="D158">
-        <v>9190068000</v>
+        <v>11964400000</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -3986,10 +3901,10 @@
         <v>142</v>
       </c>
       <c r="C159">
-        <v>1048477</v>
+        <v>1324424</v>
       </c>
       <c r="D159">
-        <v>889895000</v>
+        <v>6672317000</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -4000,10 +3915,10 @@
         <v>143</v>
       </c>
       <c r="C160">
-        <v>1590955</v>
+        <v>1384905</v>
       </c>
       <c r="D160">
-        <v>889895000</v>
+        <v>296228000</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -4014,10 +3929,10 @@
         <v>144</v>
       </c>
       <c r="C161">
-        <v>912595</v>
+        <v>877890</v>
       </c>
       <c r="D161">
-        <v>889895000</v>
+        <v>3275594000</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -4028,10 +3943,10 @@
         <v>145</v>
       </c>
       <c r="C162">
-        <v>18926</v>
+        <v>1086222</v>
       </c>
       <c r="D162">
-        <v>17900000000</v>
+        <v>2197448000</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -4039,13 +3954,13 @@
         <v>2015</v>
       </c>
       <c r="B163" t="s">
-        <v>401</v>
+        <v>146</v>
       </c>
       <c r="C163">
-        <v>1403568</v>
+        <v>1579298</v>
       </c>
       <c r="D163">
-        <v>1268295000</v>
+        <v>5129843000</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -4053,13 +3968,13 @@
         <v>2015</v>
       </c>
       <c r="B164" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C164">
-        <v>1126328</v>
+        <v>1022079</v>
       </c>
       <c r="D164">
-        <v>11964400000</v>
+        <v>7493000000</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -4067,13 +3982,13 @@
         <v>2015</v>
       </c>
       <c r="B165" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C165">
-        <v>1324424</v>
+        <v>943452</v>
       </c>
       <c r="D165">
-        <v>6672317000</v>
+        <v>3307998000</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -4081,13 +3996,13 @@
         <v>2015</v>
       </c>
       <c r="B166" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C166">
-        <v>1384905</v>
+        <v>859737</v>
       </c>
       <c r="D166">
-        <v>296228000</v>
+        <v>2705000000</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -4095,13 +4010,13 @@
         <v>2015</v>
       </c>
       <c r="B167" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C167">
-        <v>877890</v>
+        <v>912593</v>
       </c>
       <c r="D167">
-        <v>3275594000</v>
+        <v>674731000</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -4109,13 +4024,13 @@
         <v>2015</v>
       </c>
       <c r="B168" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C168">
-        <v>1086222</v>
+        <v>1025378</v>
       </c>
       <c r="D168">
-        <v>2197448000</v>
+        <v>938383000</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -4123,13 +4038,13 @@
         <v>2015</v>
       </c>
       <c r="B169" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C169">
-        <v>1579298</v>
+        <v>1336920</v>
       </c>
       <c r="D169">
-        <v>5129843000</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -4137,13 +4052,13 @@
         <v>2015</v>
       </c>
       <c r="B170" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C170">
-        <v>1022079</v>
+        <v>1121788</v>
       </c>
       <c r="D170">
-        <v>7493000000</v>
+        <v>2820270000</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -4151,13 +4066,13 @@
         <v>2015</v>
       </c>
       <c r="B171" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C171">
-        <v>943452</v>
+        <v>62996</v>
       </c>
       <c r="D171">
-        <v>3307998000</v>
+        <v>7142000000</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -4165,13 +4080,13 @@
         <v>2015</v>
       </c>
       <c r="B172" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C172">
-        <v>859737</v>
+        <v>1000697</v>
       </c>
       <c r="D172">
-        <v>2705000000</v>
+        <v>2042332000</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -4179,13 +4094,13 @@
         <v>2015</v>
       </c>
       <c r="B173" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C173">
-        <v>912593</v>
+        <v>352541</v>
       </c>
       <c r="D173">
-        <v>674731000</v>
+        <v>3253600000</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -4193,13 +4108,13 @@
         <v>2015</v>
       </c>
       <c r="B174" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C174">
-        <v>1025378</v>
+        <v>1140859</v>
       </c>
       <c r="D174">
-        <v>938383000</v>
+        <v>135961803000</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -4207,13 +4122,13 @@
         <v>2015</v>
       </c>
       <c r="B175" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C175">
-        <v>1336920</v>
+        <v>1002047</v>
       </c>
       <c r="D175">
-        <v>5063</v>
+        <v>6122.7</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -4221,13 +4136,13 @@
         <v>2015</v>
       </c>
       <c r="B176" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C176">
-        <v>1121788</v>
+        <v>3570</v>
       </c>
       <c r="D176">
-        <v>2820270000</v>
+        <v>267954</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -4235,13 +4150,13 @@
         <v>2015</v>
       </c>
       <c r="B177" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C177">
-        <v>62996</v>
+        <v>60086</v>
       </c>
       <c r="D177">
-        <v>7142000000</v>
+        <v>13415000000</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -4249,13 +4164,13 @@
         <v>2015</v>
       </c>
       <c r="B178" t="s">
-        <v>160</v>
+        <v>405</v>
       </c>
       <c r="C178">
-        <v>1000697</v>
+        <v>1596532</v>
       </c>
       <c r="D178">
-        <v>2042332000</v>
+        <v>837591000</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -4263,13 +4178,13 @@
         <v>2015</v>
       </c>
       <c r="B179" t="s">
-        <v>161</v>
+        <v>376</v>
       </c>
       <c r="C179">
-        <v>352541</v>
+        <v>1308161</v>
       </c>
       <c r="D179">
-        <v>3253600000</v>
+        <v>28987000000</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -4277,13 +4192,13 @@
         <v>2015</v>
       </c>
       <c r="B180" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C180">
-        <v>1140859</v>
+        <v>1094285</v>
       </c>
       <c r="D180">
-        <v>135961803000</v>
+        <v>2298100000</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -4291,13 +4206,13 @@
         <v>2015</v>
       </c>
       <c r="B181" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C181">
-        <v>1002047</v>
+        <v>946581</v>
       </c>
       <c r="D181">
-        <v>6122.7</v>
+        <v>300089</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -4305,13 +4220,13 @@
         <v>2015</v>
       </c>
       <c r="B182" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C182">
-        <v>3570</v>
+        <v>879169</v>
       </c>
       <c r="D182">
-        <v>267954</v>
+        <v>753751000</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -4319,13 +4234,13 @@
         <v>2015</v>
       </c>
       <c r="B183" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C183">
-        <v>60086</v>
+        <v>783280</v>
       </c>
       <c r="D183">
-        <v>13415000000</v>
+        <v>949432000</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
@@ -4333,13 +4248,13 @@
         <v>2015</v>
       </c>
       <c r="B184" t="s">
-        <v>435</v>
+        <v>165</v>
       </c>
       <c r="C184">
-        <v>1596532</v>
+        <v>749251</v>
       </c>
       <c r="D184">
-        <v>837591000</v>
+        <v>2163056000</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -4347,13 +4262,13 @@
         <v>2015</v>
       </c>
       <c r="B185" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="C185">
-        <v>1308161</v>
+        <v>1124140</v>
       </c>
       <c r="D185">
-        <v>28987000000</v>
+        <v>39437000</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -4361,13 +4276,13 @@
         <v>2015</v>
       </c>
       <c r="B186" t="s">
-        <v>403</v>
+        <v>166</v>
       </c>
       <c r="C186">
-        <v>1660134</v>
+        <v>1120193</v>
       </c>
       <c r="D186">
-        <v>28987000000</v>
+        <v>3403000000</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
@@ -4375,13 +4290,13 @@
         <v>2015</v>
       </c>
       <c r="B187" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C187">
-        <v>1094285</v>
+        <v>1306830</v>
       </c>
       <c r="D187">
-        <v>2298100000</v>
+        <v>5674000000</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -4389,13 +4304,13 @@
         <v>2015</v>
       </c>
       <c r="B188" t="s">
-        <v>167</v>
+        <v>406</v>
       </c>
       <c r="C188">
-        <v>946581</v>
+        <v>877212</v>
       </c>
       <c r="D188">
-        <v>300089</v>
+        <v>3652000000</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -4406,10 +4321,10 @@
         <v>168</v>
       </c>
       <c r="C189">
-        <v>879169</v>
+        <v>37785</v>
       </c>
       <c r="D189">
-        <v>753751000</v>
+        <v>3276500000</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -4420,10 +4335,10 @@
         <v>169</v>
       </c>
       <c r="C190">
-        <v>1679273</v>
+        <v>48465</v>
       </c>
       <c r="D190">
-        <v>753751000</v>
+        <v>9263863000</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -4434,10 +4349,10 @@
         <v>170</v>
       </c>
       <c r="C191">
-        <v>783280</v>
+        <v>1174922</v>
       </c>
       <c r="D191">
-        <v>949432000</v>
+        <v>4075883000</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -4448,10 +4363,10 @@
         <v>171</v>
       </c>
       <c r="C192">
-        <v>749251</v>
+        <v>1604778</v>
       </c>
       <c r="D192">
-        <v>2163056000</v>
+        <v>1710966</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -4459,13 +4374,13 @@
         <v>2015</v>
       </c>
       <c r="B193" t="s">
-        <v>453</v>
+        <v>172</v>
       </c>
       <c r="C193">
-        <v>1124140</v>
+        <v>832101</v>
       </c>
       <c r="D193">
-        <v>39437000</v>
+        <v>2020668000</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
@@ -4473,13 +4388,13 @@
         <v>2015</v>
       </c>
       <c r="B194" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C194">
-        <v>1120193</v>
+        <v>818479</v>
       </c>
       <c r="D194">
-        <v>3403000000</v>
+        <v>2674300000</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -4487,13 +4402,13 @@
         <v>2015</v>
       </c>
       <c r="B195" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C195">
-        <v>1306830</v>
+        <v>779152</v>
       </c>
       <c r="D195">
-        <v>5674000000</v>
+        <v>333713000</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -4501,13 +4416,13 @@
         <v>2015</v>
       </c>
       <c r="B196" t="s">
-        <v>436</v>
+        <v>175</v>
       </c>
       <c r="C196">
-        <v>877212</v>
+        <v>1278021</v>
       </c>
       <c r="D196">
-        <v>3652000000</v>
+        <v>303098000</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -4515,13 +4430,13 @@
         <v>2015</v>
       </c>
       <c r="B197" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C197">
-        <v>37785</v>
+        <v>1070750</v>
       </c>
       <c r="D197">
-        <v>3276500000</v>
+        <v>5387000000</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -4529,13 +4444,13 @@
         <v>2015</v>
       </c>
       <c r="B198" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C198">
-        <v>48465</v>
+        <v>217346</v>
       </c>
       <c r="D198">
-        <v>9263863000</v>
+        <v>13423000000</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -4543,13 +4458,13 @@
         <v>2015</v>
       </c>
       <c r="B199" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C199">
-        <v>1174922</v>
+        <v>1365135</v>
       </c>
       <c r="D199">
-        <v>4075883000</v>
+        <v>5483700000</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -4557,13 +4472,13 @@
         <v>2015</v>
       </c>
       <c r="B200" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C200">
-        <v>1604778</v>
+        <v>8818</v>
       </c>
       <c r="D200">
-        <v>1710966</v>
+        <v>1454800000</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -4571,13 +4486,13 @@
         <v>2015</v>
       </c>
       <c r="B201" t="s">
-        <v>178</v>
+        <v>407</v>
       </c>
       <c r="C201">
-        <v>832101</v>
+        <v>1513761</v>
       </c>
       <c r="D201">
-        <v>2020668000</v>
+        <v>4345048000</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -4585,13 +4500,13 @@
         <v>2015</v>
       </c>
       <c r="B202" t="s">
-        <v>179</v>
+        <v>408</v>
       </c>
       <c r="C202">
-        <v>818479</v>
+        <v>105770</v>
       </c>
       <c r="D202">
-        <v>2674300000</v>
+        <v>1421.4</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -4602,10 +4517,10 @@
         <v>180</v>
       </c>
       <c r="C203">
-        <v>779152</v>
+        <v>1124610</v>
       </c>
       <c r="D203">
-        <v>333713000</v>
+        <v>6571000000</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -4616,10 +4531,10 @@
         <v>181</v>
       </c>
       <c r="C204">
-        <v>1278021</v>
+        <v>1067701</v>
       </c>
       <c r="D204">
-        <v>303098000</v>
+        <v>1523000000</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -4630,10 +4545,10 @@
         <v>182</v>
       </c>
       <c r="C205">
-        <v>1070750</v>
+        <v>1145197</v>
       </c>
       <c r="D205">
-        <v>5387000000</v>
+        <v>324225000</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -4641,13 +4556,13 @@
         <v>2015</v>
       </c>
       <c r="B206" t="s">
-        <v>183</v>
+        <v>409</v>
       </c>
       <c r="C206">
-        <v>217346</v>
+        <v>6201</v>
       </c>
       <c r="D206">
-        <v>13423000000</v>
+        <v>40990000000</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -4655,13 +4570,13 @@
         <v>2015</v>
       </c>
       <c r="B207" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C207">
-        <v>1365135</v>
+        <v>1286681</v>
       </c>
       <c r="D207">
-        <v>5483700000</v>
+        <v>2216528000</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -4669,13 +4584,13 @@
         <v>2015</v>
       </c>
       <c r="B208" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C208">
-        <v>8818</v>
+        <v>822416</v>
       </c>
       <c r="D208">
-        <v>1454800000</v>
+        <v>2061628000</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -4683,13 +4598,13 @@
         <v>2015</v>
       </c>
       <c r="B209" t="s">
-        <v>437</v>
+        <v>185</v>
       </c>
       <c r="C209">
-        <v>1513761</v>
+        <v>864749</v>
       </c>
       <c r="D209">
-        <v>4345048000</v>
+        <v>2290400000</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -4697,13 +4612,13 @@
         <v>2015</v>
       </c>
       <c r="B210" t="s">
-        <v>438</v>
+        <v>186</v>
       </c>
       <c r="C210">
-        <v>105770</v>
+        <v>352915</v>
       </c>
       <c r="D210">
-        <v>1421.4</v>
+        <v>2315239000</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -4711,13 +4626,13 @@
         <v>2015</v>
       </c>
       <c r="B211" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C211">
-        <v>1124610</v>
+        <v>764622</v>
       </c>
       <c r="D211">
-        <v>6571000000</v>
+        <v>3495443000</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -4725,13 +4640,13 @@
         <v>2015</v>
       </c>
       <c r="B212" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C212">
-        <v>1067701</v>
+        <v>11544</v>
       </c>
       <c r="D212">
-        <v>1523000000</v>
+        <v>7206457000</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -4739,13 +4654,13 @@
         <v>2015</v>
       </c>
       <c r="B213" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C213">
-        <v>1145197</v>
+        <v>79282</v>
       </c>
       <c r="D213">
-        <v>324225000</v>
+        <v>1660509000</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -4753,13 +4668,13 @@
         <v>2015</v>
       </c>
       <c r="B214" t="s">
-        <v>439</v>
+        <v>190</v>
       </c>
       <c r="C214">
-        <v>6201</v>
+        <v>1013237</v>
       </c>
       <c r="D214">
-        <v>40990000000</v>
+        <v>1006768000</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -4767,13 +4682,13 @@
         <v>2015</v>
       </c>
       <c r="B215" t="s">
-        <v>189</v>
+        <v>410</v>
       </c>
       <c r="C215">
-        <v>1286681</v>
+        <v>1636023</v>
       </c>
       <c r="D215">
-        <v>2216528000</v>
+        <v>11381300000</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
@@ -4781,13 +4696,13 @@
         <v>2015</v>
       </c>
       <c r="B216" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C216">
-        <v>822416</v>
+        <v>31791</v>
       </c>
       <c r="D216">
-        <v>2061628000</v>
+        <v>2262359000</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -4795,13 +4710,13 @@
         <v>2015</v>
       </c>
       <c r="B217" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C217">
-        <v>864749</v>
+        <v>1584509</v>
       </c>
       <c r="D217">
-        <v>2290400000</v>
+        <v>14329135000</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -4809,13 +4724,13 @@
         <v>2015</v>
       </c>
       <c r="B218" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C218">
-        <v>1671933</v>
+        <v>910606</v>
       </c>
       <c r="D218">
-        <v>2290400000</v>
+        <v>569763000</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -4823,13 +4738,13 @@
         <v>2015</v>
       </c>
       <c r="B219" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C219">
-        <v>352915</v>
+        <v>1065696</v>
       </c>
       <c r="D219">
-        <v>2315239000</v>
+        <v>1748919000</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -4837,13 +4752,13 @@
         <v>2015</v>
       </c>
       <c r="B220" t="s">
-        <v>194</v>
+        <v>377</v>
       </c>
       <c r="C220">
-        <v>764622</v>
+        <v>1000228</v>
       </c>
       <c r="D220">
-        <v>3495443000</v>
+        <v>10629719000</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -4851,13 +4766,13 @@
         <v>2015</v>
       </c>
       <c r="B221" t="s">
-        <v>195</v>
+        <v>411</v>
       </c>
       <c r="C221">
-        <v>11544</v>
+        <v>1507385</v>
       </c>
       <c r="D221">
-        <v>7206457000</v>
+        <v>1556017000</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -4865,13 +4780,13 @@
         <v>2015</v>
       </c>
       <c r="B222" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C222">
-        <v>79282</v>
+        <v>1219601</v>
       </c>
       <c r="D222">
-        <v>1660509000</v>
+        <v>8762000000</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -4879,13 +4794,13 @@
         <v>2015</v>
       </c>
       <c r="B223" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C223">
-        <v>1013237</v>
+        <v>72331</v>
       </c>
       <c r="D223">
-        <v>1006768000</v>
+        <v>1688666000</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -4893,13 +4808,13 @@
         <v>2015</v>
       </c>
       <c r="B224" t="s">
-        <v>440</v>
+        <v>197</v>
       </c>
       <c r="C224">
-        <v>1636023</v>
+        <v>72207</v>
       </c>
       <c r="D224">
-        <v>11381300000</v>
+        <v>3133000000</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -4910,10 +4825,10 @@
         <v>198</v>
       </c>
       <c r="C225">
-        <v>31791</v>
+        <v>1519751</v>
       </c>
       <c r="D225">
-        <v>2262359000</v>
+        <v>4579400000</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -4924,10 +4839,10 @@
         <v>199</v>
       </c>
       <c r="C226">
-        <v>1584509</v>
+        <v>101778</v>
       </c>
       <c r="D226">
-        <v>14329135000</v>
+        <v>5861000000</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -4938,10 +4853,10 @@
         <v>200</v>
       </c>
       <c r="C227">
-        <v>910606</v>
+        <v>110621</v>
       </c>
       <c r="D227">
-        <v>569763000</v>
+        <v>4594550000</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -4952,10 +4867,10 @@
         <v>201</v>
       </c>
       <c r="C228">
-        <v>1065696</v>
+        <v>1528396</v>
       </c>
       <c r="D228">
-        <v>1748919000</v>
+        <v>380537000</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -4963,13 +4878,13 @@
         <v>2015</v>
       </c>
       <c r="B229" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="C229">
-        <v>1000228</v>
+        <v>1463172</v>
       </c>
       <c r="D229">
-        <v>10629719000</v>
+        <v>208768000</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -4977,13 +4892,13 @@
         <v>2015</v>
       </c>
       <c r="B230" t="s">
-        <v>441</v>
+        <v>379</v>
       </c>
       <c r="C230">
-        <v>1507385</v>
+        <v>1575965</v>
       </c>
       <c r="D230">
-        <v>1556017000</v>
+        <v>128689000</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -4991,13 +4906,13 @@
         <v>2015</v>
       </c>
       <c r="B231" t="s">
-        <v>442</v>
+        <v>380</v>
       </c>
       <c r="C231">
-        <v>1062579</v>
+        <v>812011</v>
       </c>
       <c r="D231">
-        <v>1556017000</v>
+        <v>162082000</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -5008,10 +4923,10 @@
         <v>202</v>
       </c>
       <c r="C232">
-        <v>1219601</v>
+        <v>1013871</v>
       </c>
       <c r="D232">
-        <v>8762000000</v>
+        <v>3011000000</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -5022,10 +4937,10 @@
         <v>203</v>
       </c>
       <c r="C233">
-        <v>72331</v>
+        <v>1309108</v>
       </c>
       <c r="D233">
-        <v>1688666000</v>
+        <v>854637000</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -5033,13 +4948,13 @@
         <v>2015</v>
       </c>
       <c r="B234" t="s">
-        <v>204</v>
+        <v>381</v>
       </c>
       <c r="C234">
-        <v>72207</v>
+        <v>898174</v>
       </c>
       <c r="D234">
-        <v>3133000000</v>
+        <v>10418178000</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -5047,13 +4962,13 @@
         <v>2015</v>
       </c>
       <c r="B235" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C235">
-        <v>1519751</v>
+        <v>106640</v>
       </c>
       <c r="D235">
-        <v>4579400000</v>
+        <v>20891000000</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -5061,13 +4976,13 @@
         <v>2015</v>
       </c>
       <c r="B236" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C236">
-        <v>1385867</v>
+        <v>915913</v>
       </c>
       <c r="D236">
-        <v>4579400000</v>
+        <v>3651335000</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -5075,13 +4990,13 @@
         <v>2015</v>
       </c>
       <c r="B237" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C237">
-        <v>101778</v>
+        <v>1021635</v>
       </c>
       <c r="D237">
-        <v>5861000000</v>
+        <v>2196900000</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -5089,13 +5004,13 @@
         <v>2015</v>
       </c>
       <c r="B238" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C238">
-        <v>110621</v>
+        <v>1335258</v>
       </c>
       <c r="D238">
-        <v>4594550000</v>
+        <v>7245731000</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -5103,13 +5018,13 @@
         <v>2015</v>
       </c>
       <c r="B239" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C239">
-        <v>1528396</v>
+        <v>1158449</v>
       </c>
       <c r="D239">
-        <v>380537000</v>
+        <v>2033545000</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -5117,13 +5032,13 @@
         <v>2015</v>
       </c>
       <c r="B240" t="s">
-        <v>405</v>
+        <v>209</v>
       </c>
       <c r="C240">
-        <v>1437578</v>
+        <v>51644</v>
       </c>
       <c r="D240">
-        <v>380537000</v>
+        <v>7613800000</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -5131,13 +5046,13 @@
         <v>2015</v>
       </c>
       <c r="B241" t="s">
-        <v>406</v>
+        <v>210</v>
       </c>
       <c r="C241">
-        <v>1463172</v>
+        <v>851205</v>
       </c>
       <c r="D241">
-        <v>208768000</v>
+        <v>450557000</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -5145,13 +5060,13 @@
         <v>2015</v>
       </c>
       <c r="B242" t="s">
-        <v>407</v>
+        <v>211</v>
       </c>
       <c r="C242">
-        <v>1575965</v>
+        <v>857005</v>
       </c>
       <c r="D242">
-        <v>128689000</v>
+        <v>1255242000</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -5159,13 +5074,13 @@
         <v>2015</v>
       </c>
       <c r="B243" t="s">
-        <v>408</v>
+        <v>212</v>
       </c>
       <c r="C243">
-        <v>812011</v>
+        <v>1004980</v>
       </c>
       <c r="D243">
-        <v>162082000</v>
+        <v>16833000000</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -5173,13 +5088,13 @@
         <v>2015</v>
       </c>
       <c r="B244" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C244">
-        <v>1013871</v>
+        <v>350894</v>
       </c>
       <c r="D244">
-        <v>3011000000</v>
+        <v>1334208000</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -5187,13 +5102,13 @@
         <v>2015</v>
       </c>
       <c r="B245" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C245">
-        <v>1309108</v>
+        <v>884614</v>
       </c>
       <c r="D245">
-        <v>854637000</v>
+        <v>6691100000</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -5201,13 +5116,13 @@
         <v>2015</v>
       </c>
       <c r="B246" t="s">
-        <v>409</v>
+        <v>215</v>
       </c>
       <c r="C246">
-        <v>898174</v>
+        <v>791915</v>
       </c>
       <c r="D246">
-        <v>10418178000</v>
+        <v>1607853000</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -5215,13 +5130,13 @@
         <v>2015</v>
       </c>
       <c r="B247" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C247">
-        <v>106640</v>
+        <v>929940</v>
       </c>
       <c r="D247">
-        <v>20891000000</v>
+        <v>440401000</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -5229,13 +5144,13 @@
         <v>2015</v>
       </c>
       <c r="B248" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C248">
-        <v>1324404</v>
+        <v>945841</v>
       </c>
       <c r="D248">
-        <v>20891000000</v>
+        <v>2363139000</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -5243,13 +5158,13 @@
         <v>2015</v>
       </c>
       <c r="B249" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C249">
-        <v>1692819</v>
+        <v>1069202</v>
       </c>
       <c r="D249">
-        <v>20891000000</v>
+        <v>3467400000</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -5257,13 +5172,13 @@
         <v>2015</v>
       </c>
       <c r="B250" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C250">
-        <v>915913</v>
+        <v>815094</v>
       </c>
       <c r="D250">
-        <v>3651335000</v>
+        <v>230311</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -5271,13 +5186,13 @@
         <v>2015</v>
       </c>
       <c r="B251" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C251">
-        <v>1021635</v>
+        <v>913144</v>
       </c>
       <c r="D251">
-        <v>2196900000</v>
+        <v>1515102000</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -5285,13 +5200,13 @@
         <v>2015</v>
       </c>
       <c r="B252" t="s">
-        <v>217</v>
+        <v>382</v>
       </c>
       <c r="C252">
-        <v>1335258</v>
+        <v>1166003</v>
       </c>
       <c r="D252">
-        <v>7245731000</v>
+        <v>7623200000</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -5299,13 +5214,13 @@
         <v>2015</v>
       </c>
       <c r="B253" t="s">
-        <v>218</v>
+        <v>383</v>
       </c>
       <c r="C253">
-        <v>1158449</v>
+        <v>1538990</v>
       </c>
       <c r="D253">
-        <v>2033545000</v>
+        <v>284762000</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -5313,13 +5228,13 @@
         <v>2015</v>
       </c>
       <c r="B254" t="s">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="C254">
-        <v>1020569</v>
+        <v>1535929</v>
       </c>
       <c r="D254">
-        <v>2033545000</v>
+        <v>1996800000</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -5327,13 +5242,13 @@
         <v>2015</v>
       </c>
       <c r="B255" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C255">
-        <v>51644</v>
+        <v>1267238</v>
       </c>
       <c r="D255">
-        <v>7613800000</v>
+        <v>10325494000</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -5341,13 +5256,13 @@
         <v>2015</v>
       </c>
       <c r="B256" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C256">
-        <v>851205</v>
+        <v>1042046</v>
       </c>
       <c r="D256">
-        <v>450557000</v>
+        <v>6145000000</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -5355,13 +5270,13 @@
         <v>2015</v>
       </c>
       <c r="B257" t="s">
-        <v>221</v>
+        <v>412</v>
       </c>
       <c r="C257">
-        <v>857005</v>
+        <v>858339</v>
       </c>
       <c r="D257">
-        <v>1255242000</v>
+        <v>4654000000</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -5369,13 +5284,13 @@
         <v>2015</v>
       </c>
       <c r="B258" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C258">
-        <v>1004980</v>
+        <v>1179929</v>
       </c>
       <c r="D258">
-        <v>16833000000</v>
+        <v>14178000000</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -5383,13 +5298,13 @@
         <v>2015</v>
       </c>
       <c r="B259" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C259">
-        <v>350894</v>
+        <v>766421</v>
       </c>
       <c r="D259">
-        <v>1334208000</v>
+        <v>5598000000</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -5397,13 +5312,13 @@
         <v>2015</v>
       </c>
       <c r="B260" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C260">
-        <v>884614</v>
+        <v>1232524</v>
       </c>
       <c r="D260">
-        <v>6691100000</v>
+        <v>1324803000</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -5411,13 +5326,13 @@
         <v>2015</v>
       </c>
       <c r="B261" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C261">
-        <v>791915</v>
+        <v>1029199</v>
       </c>
       <c r="D261">
-        <v>1607853000</v>
+        <v>470579000</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -5425,13 +5340,13 @@
         <v>2015</v>
       </c>
       <c r="B262" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C262">
-        <v>929940</v>
+        <v>879101</v>
       </c>
       <c r="D262">
-        <v>440401000</v>
+        <v>1166769000</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -5439,13 +5354,13 @@
         <v>2015</v>
       </c>
       <c r="B263" t="s">
-        <v>227</v>
+        <v>385</v>
       </c>
       <c r="C263">
-        <v>945841</v>
+        <v>1608249</v>
       </c>
       <c r="D263">
-        <v>2363139000</v>
+        <v>1347100000</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -5456,10 +5371,10 @@
         <v>228</v>
       </c>
       <c r="C264">
-        <v>1069202</v>
+        <v>922864</v>
       </c>
       <c r="D264">
-        <v>3467400000</v>
+        <v>981310000</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -5470,10 +5385,10 @@
         <v>229</v>
       </c>
       <c r="C265">
-        <v>815094</v>
+        <v>1116132</v>
       </c>
       <c r="D265">
-        <v>230311</v>
+        <v>4191600000</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -5481,13 +5396,13 @@
         <v>2015</v>
       </c>
       <c r="B266" t="s">
-        <v>230</v>
+        <v>413</v>
       </c>
       <c r="C266">
-        <v>913144</v>
+        <v>1280452</v>
       </c>
       <c r="D266">
-        <v>1515102000</v>
+        <v>333067000</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -5495,13 +5410,13 @@
         <v>2015</v>
       </c>
       <c r="B267" t="s">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="C267">
-        <v>1166003</v>
+        <v>814453</v>
       </c>
       <c r="D267">
-        <v>7623200000</v>
+        <v>5915700000</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -5509,13 +5424,13 @@
         <v>2015</v>
       </c>
       <c r="B268" t="s">
-        <v>411</v>
+        <v>231</v>
       </c>
       <c r="C268">
-        <v>1538990</v>
+        <v>1005284</v>
       </c>
       <c r="D268">
-        <v>284762000</v>
+        <v>191046000</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -5523,13 +5438,13 @@
         <v>2015</v>
       </c>
       <c r="B269" t="s">
-        <v>412</v>
+        <v>232</v>
       </c>
       <c r="C269">
-        <v>1535929</v>
+        <v>861884</v>
       </c>
       <c r="D269">
-        <v>1996800000</v>
+        <v>9350500000</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -5537,13 +5452,13 @@
         <v>2015</v>
       </c>
       <c r="B270" t="s">
-        <v>413</v>
+        <v>233</v>
       </c>
       <c r="C270">
-        <v>1702780</v>
+        <v>1477294</v>
       </c>
       <c r="D270">
-        <v>1996800000</v>
+        <v>2974961000</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -5551,13 +5466,13 @@
         <v>2015</v>
       </c>
       <c r="B271" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C271">
-        <v>1267238</v>
+        <v>1101302</v>
       </c>
       <c r="D271">
-        <v>10325494000</v>
+        <v>1081121000</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -5565,13 +5480,13 @@
         <v>2015</v>
       </c>
       <c r="B272" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C272">
-        <v>1042046</v>
+        <v>1397911</v>
       </c>
       <c r="D272">
-        <v>6145000000</v>
+        <v>4275054000</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -5579,13 +5494,13 @@
         <v>2015</v>
       </c>
       <c r="B273" t="s">
-        <v>444</v>
+        <v>236</v>
       </c>
       <c r="C273">
-        <v>858339</v>
+        <v>1040971</v>
       </c>
       <c r="D273">
-        <v>4654000000</v>
+        <v>1662829000</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -5593,13 +5508,13 @@
         <v>2015</v>
       </c>
       <c r="B274" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C274">
-        <v>1179929</v>
+        <v>1100682</v>
       </c>
       <c r="D274">
-        <v>14178000000</v>
+        <v>1363302000</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -5607,13 +5522,13 @@
         <v>2015</v>
       </c>
       <c r="B275" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C275">
-        <v>766421</v>
+        <v>896622</v>
       </c>
       <c r="D275">
-        <v>5598000000</v>
+        <v>2317149000</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -5621,13 +5536,13 @@
         <v>2015</v>
       </c>
       <c r="B276" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C276">
-        <v>1232524</v>
+        <v>874015</v>
       </c>
       <c r="D276">
-        <v>1324803000</v>
+        <v>283703000</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -5635,13 +5550,13 @@
         <v>2015</v>
       </c>
       <c r="B277" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C277">
-        <v>1029199</v>
+        <v>1492633</v>
       </c>
       <c r="D277">
-        <v>470579000</v>
+        <v>6172000000</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -5649,13 +5564,13 @@
         <v>2015</v>
       </c>
       <c r="B278" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C278">
-        <v>879101</v>
+        <v>1144519</v>
       </c>
       <c r="D278">
-        <v>1166769000</v>
+        <v>43455000000</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -5663,13 +5578,13 @@
         <v>2015</v>
       </c>
       <c r="B279" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C279">
-        <v>12208</v>
+        <v>354908</v>
       </c>
       <c r="D279">
-        <v>1166769000</v>
+        <v>1557067000</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
@@ -5677,13 +5592,13 @@
         <v>2015</v>
       </c>
       <c r="B280" t="s">
-        <v>414</v>
+        <v>243</v>
       </c>
       <c r="C280">
-        <v>1608249</v>
+        <v>885639</v>
       </c>
       <c r="D280">
-        <v>1347100000</v>
+        <v>19204000000</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -5691,13 +5606,13 @@
         <v>2015</v>
       </c>
       <c r="B281" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C281">
-        <v>922864</v>
+        <v>38777</v>
       </c>
       <c r="D281">
-        <v>981310000</v>
+        <v>7948700000</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -5705,13 +5620,13 @@
         <v>2015</v>
       </c>
       <c r="B282" t="s">
-        <v>240</v>
+        <v>414</v>
       </c>
       <c r="C282">
-        <v>1116132</v>
+        <v>1404655</v>
       </c>
       <c r="D282">
-        <v>4191600000</v>
+        <v>181943000</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -5719,13 +5634,13 @@
         <v>2015</v>
       </c>
       <c r="B283" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
       <c r="C283">
-        <v>1280452</v>
+        <v>1465128</v>
       </c>
       <c r="D283">
-        <v>333067000</v>
+        <v>735877000</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -5733,13 +5648,13 @@
         <v>2015</v>
       </c>
       <c r="B284" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C284">
-        <v>814453</v>
+        <v>1212458</v>
       </c>
       <c r="D284">
-        <v>5915700000</v>
+        <v>265397000</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -5747,13 +5662,13 @@
         <v>2015</v>
       </c>
       <c r="B285" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C285">
-        <v>1005284</v>
+        <v>1364250</v>
       </c>
       <c r="D285">
-        <v>191046000</v>
+        <v>635774000</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -5761,13 +5676,13 @@
         <v>2015</v>
       </c>
       <c r="B286" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C286">
-        <v>861884</v>
+        <v>914208</v>
       </c>
       <c r="D286">
-        <v>9350500000</v>
+        <v>5122900000</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -5775,13 +5690,13 @@
         <v>2015</v>
       </c>
       <c r="B287" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C287">
-        <v>1015820</v>
+        <v>1390844</v>
       </c>
       <c r="D287">
-        <v>9350500000</v>
+        <v>2627500000</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -5789,13 +5704,13 @@
         <v>2015</v>
       </c>
       <c r="B288" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C288">
-        <v>355811</v>
+        <v>1364885</v>
       </c>
       <c r="D288">
-        <v>9350500000</v>
+        <v>1609400000</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -5803,13 +5718,13 @@
         <v>2015</v>
       </c>
       <c r="B289" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C289">
-        <v>1477294</v>
+        <v>1472787</v>
       </c>
       <c r="D289">
-        <v>2974961000</v>
+        <v>5175456000</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
@@ -5817,13 +5732,13 @@
         <v>2015</v>
       </c>
       <c r="B290" t="s">
-        <v>247</v>
+        <v>415</v>
       </c>
       <c r="C290">
-        <v>1101302</v>
+        <v>1613859</v>
       </c>
       <c r="D290">
-        <v>1081121000</v>
+        <v>379216000</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -5831,13 +5746,13 @@
         <v>2015</v>
       </c>
       <c r="B291" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C291">
-        <v>1397911</v>
+        <v>16058</v>
       </c>
       <c r="D291">
-        <v>4275054000</v>
+        <v>3313452000</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -5845,13 +5760,13 @@
         <v>2015</v>
       </c>
       <c r="B292" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C292">
-        <v>1040971</v>
+        <v>108772</v>
       </c>
       <c r="D292">
-        <v>1662829000</v>
+        <v>18045000000</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -5859,13 +5774,13 @@
         <v>2015</v>
       </c>
       <c r="B293" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C293">
-        <v>1100682</v>
+        <v>1637207</v>
       </c>
       <c r="D293">
-        <v>1363302000</v>
+        <v>330537000</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -5873,13 +5788,13 @@
         <v>2015</v>
       </c>
       <c r="B294" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C294">
-        <v>896622</v>
+        <v>936395</v>
       </c>
       <c r="D294">
-        <v>2317149000</v>
+        <v>2445669000</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -5887,13 +5802,13 @@
         <v>2015</v>
       </c>
       <c r="B295" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C295">
-        <v>874015</v>
+        <v>74260</v>
       </c>
       <c r="D295">
-        <v>283703000</v>
+        <v>5766100000</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -5901,13 +5816,13 @@
         <v>2015</v>
       </c>
       <c r="B296" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C296">
-        <v>1492633</v>
+        <v>1360604</v>
       </c>
       <c r="D296">
-        <v>6172000000</v>
+        <v>403822000</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -5915,13 +5830,13 @@
         <v>2015</v>
       </c>
       <c r="B297" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C297">
-        <v>1144519</v>
+        <v>30625</v>
       </c>
       <c r="D297">
-        <v>43455000000</v>
+        <v>4561030000</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -5929,13 +5844,13 @@
         <v>2015</v>
       </c>
       <c r="B298" t="s">
-        <v>255</v>
+        <v>387</v>
       </c>
       <c r="C298">
-        <v>354908</v>
+        <v>1177609</v>
       </c>
       <c r="D298">
-        <v>1557067000</v>
+        <v>831954000</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -5943,13 +5858,13 @@
         <v>2015</v>
       </c>
       <c r="B299" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C299">
-        <v>885639</v>
+        <v>1357204</v>
       </c>
       <c r="D299">
-        <v>19204000000</v>
+        <v>810933000</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -5957,13 +5872,13 @@
         <v>2015</v>
       </c>
       <c r="B300" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C300">
-        <v>38777</v>
+        <v>7536</v>
       </c>
       <c r="D300">
-        <v>7948700000</v>
+        <v>23282020000</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -5971,13 +5886,13 @@
         <v>2015</v>
       </c>
       <c r="B301" t="s">
-        <v>446</v>
+        <v>260</v>
       </c>
       <c r="C301">
-        <v>1404655</v>
+        <v>775158</v>
       </c>
       <c r="D301">
-        <v>181943000</v>
+        <v>6098100000</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -5985,13 +5900,13 @@
         <v>2015</v>
       </c>
       <c r="B302" t="s">
-        <v>415</v>
+        <v>261</v>
       </c>
       <c r="C302">
-        <v>1465128</v>
+        <v>1486957</v>
       </c>
       <c r="D302">
-        <v>735877000</v>
+        <v>1415529000</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
@@ -5999,13 +5914,13 @@
         <v>2015</v>
       </c>
       <c r="B303" t="s">
-        <v>258</v>
+        <v>388</v>
       </c>
       <c r="C303">
-        <v>1212458</v>
+        <v>216228</v>
       </c>
       <c r="D303">
-        <v>265397000</v>
+        <v>2485600000</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
@@ -6013,13 +5928,13 @@
         <v>2015</v>
       </c>
       <c r="B304" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C304">
-        <v>1364250</v>
+        <v>5513</v>
       </c>
       <c r="D304">
-        <v>635774000</v>
+        <v>10509.7</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
@@ -6027,13 +5942,13 @@
         <v>2015</v>
       </c>
       <c r="B305" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C305">
-        <v>1556593</v>
+        <v>67716</v>
       </c>
       <c r="D305">
-        <v>635774000</v>
+        <v>4191549000</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
@@ -6041,13 +5956,13 @@
         <v>2015</v>
       </c>
       <c r="B306" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C306">
-        <v>914208</v>
+        <v>1022671</v>
       </c>
       <c r="D306">
-        <v>5122900000</v>
+        <v>7594411000</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
@@ -6055,13 +5970,13 @@
         <v>2015</v>
       </c>
       <c r="B307" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C307">
-        <v>1390844</v>
+        <v>1597033</v>
       </c>
       <c r="D307">
-        <v>2627500000</v>
+        <v>758455000</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
@@ -6069,13 +5984,13 @@
         <v>2015</v>
       </c>
       <c r="B308" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C308">
-        <v>1364885</v>
+        <v>58492</v>
       </c>
       <c r="D308">
-        <v>1609400000</v>
+        <v>3917200000</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
@@ -6083,13 +5998,13 @@
         <v>2015</v>
       </c>
       <c r="B309" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C309">
-        <v>1472787</v>
+        <v>1617640</v>
       </c>
       <c r="D309">
-        <v>5175456000</v>
+        <v>644677000</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
@@ -6097,13 +6012,13 @@
         <v>2015</v>
       </c>
       <c r="B310" t="s">
-        <v>265</v>
+        <v>389</v>
       </c>
       <c r="C310">
-        <v>1441816</v>
+        <v>25232</v>
       </c>
       <c r="D310">
-        <v>5175456000</v>
+        <v>381643000</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -6111,13 +6026,13 @@
         <v>2015</v>
       </c>
       <c r="B311" t="s">
-        <v>447</v>
+        <v>268</v>
       </c>
       <c r="C311">
-        <v>1613859</v>
+        <v>898293</v>
       </c>
       <c r="D311">
-        <v>379216000</v>
+        <v>17899196000</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -6125,13 +6040,13 @@
         <v>2015</v>
       </c>
       <c r="B312" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C312">
-        <v>16058</v>
+        <v>1037038</v>
       </c>
       <c r="D312">
-        <v>3313452000</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -6139,13 +6054,13 @@
         <v>2015</v>
       </c>
       <c r="B313" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C313">
-        <v>108772</v>
+        <v>935494</v>
       </c>
       <c r="D313">
-        <v>18045000000</v>
+        <v>1225456000</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
@@ -6153,13 +6068,13 @@
         <v>2015</v>
       </c>
       <c r="B314" t="s">
-        <v>268</v>
+        <v>390</v>
       </c>
       <c r="C314">
-        <v>1637207</v>
+        <v>726958</v>
       </c>
       <c r="D314">
-        <v>330537000</v>
+        <v>7767216000</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
@@ -6167,13 +6082,13 @@
         <v>2015</v>
       </c>
       <c r="B315" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C315">
-        <v>936395</v>
+        <v>91767</v>
       </c>
       <c r="D315">
-        <v>2445669000</v>
+        <v>4964369000</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
@@ -6181,13 +6096,13 @@
         <v>2015</v>
       </c>
       <c r="B316" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C316">
-        <v>74260</v>
+        <v>1012100</v>
       </c>
       <c r="D316">
-        <v>5766100000</v>
+        <v>7031500000</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -6195,13 +6110,13 @@
         <v>2015</v>
       </c>
       <c r="B317" t="s">
-        <v>271</v>
+        <v>391</v>
       </c>
       <c r="C317">
-        <v>1360604</v>
+        <v>1378992</v>
       </c>
       <c r="D317">
-        <v>403822000</v>
+        <v>1196000000</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
@@ -6209,13 +6124,13 @@
         <v>2015</v>
       </c>
       <c r="B318" t="s">
-        <v>272</v>
+        <v>416</v>
       </c>
       <c r="C318">
-        <v>30625</v>
+        <v>1370637</v>
       </c>
       <c r="D318">
-        <v>4561030000</v>
+        <v>273499000</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
@@ -6223,13 +6138,13 @@
         <v>2015</v>
       </c>
       <c r="B319" t="s">
-        <v>416</v>
+        <v>273</v>
       </c>
       <c r="C319">
-        <v>1177609</v>
+        <v>1177394</v>
       </c>
       <c r="D319">
-        <v>831954000</v>
+        <v>13338397000</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
@@ -6237,13 +6152,13 @@
         <v>2015</v>
       </c>
       <c r="B320" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C320">
-        <v>1357204</v>
+        <v>861878</v>
       </c>
       <c r="D320">
-        <v>810933000</v>
+        <v>2985908000</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
@@ -6251,13 +6166,13 @@
         <v>2015</v>
       </c>
       <c r="B321" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C321">
-        <v>7536</v>
+        <v>105016</v>
       </c>
       <c r="D321">
-        <v>23282020000</v>
+        <v>4113239000</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
@@ -6265,13 +6180,13 @@
         <v>2015</v>
       </c>
       <c r="B322" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C322">
-        <v>775158</v>
+        <v>1002517</v>
       </c>
       <c r="D322">
-        <v>6098100000</v>
+        <v>1931136000</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
@@ -6279,13 +6194,13 @@
         <v>2015</v>
       </c>
       <c r="B323" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C323">
-        <v>1486957</v>
+        <v>701985</v>
       </c>
       <c r="D323">
-        <v>1415529000</v>
+        <v>4395000000</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
@@ -6293,13 +6208,13 @@
         <v>2015</v>
       </c>
       <c r="B324" t="s">
-        <v>417</v>
+        <v>278</v>
       </c>
       <c r="C324">
-        <v>216228</v>
+        <v>1142417</v>
       </c>
       <c r="D324">
-        <v>2485600000</v>
+        <v>252262000</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
@@ -6307,13 +6222,13 @@
         <v>2015</v>
       </c>
       <c r="B325" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C325">
-        <v>5513</v>
+        <v>1045450</v>
       </c>
       <c r="D325">
-        <v>10509.7</v>
+        <v>111988000</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
@@ -6321,13 +6236,13 @@
         <v>2015</v>
       </c>
       <c r="B326" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C326">
-        <v>67716</v>
+        <v>71691</v>
       </c>
       <c r="D326">
-        <v>4191549000</v>
+        <v>1579215000</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
@@ -6335,13 +6250,13 @@
         <v>2015</v>
       </c>
       <c r="B327" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C327">
-        <v>1022671</v>
+        <v>939767</v>
       </c>
       <c r="D327">
-        <v>7594411000</v>
+        <v>37172000</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
@@ -6349,13 +6264,13 @@
         <v>2015</v>
       </c>
       <c r="B328" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C328">
-        <v>1597033</v>
+        <v>944695</v>
       </c>
       <c r="D328">
-        <v>758455000</v>
+        <v>5034000000</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
@@ -6363,13 +6278,13 @@
         <v>2015</v>
       </c>
       <c r="B329" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C329">
-        <v>1689923</v>
+        <v>1214816</v>
       </c>
       <c r="D329">
-        <v>758455000</v>
+        <v>4130309000</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
@@ -6377,13 +6292,13 @@
         <v>2015</v>
       </c>
       <c r="B330" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C330">
-        <v>58492</v>
+        <v>350797</v>
       </c>
       <c r="D330">
-        <v>3917200000</v>
+        <v>1403563000</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
@@ -6391,13 +6306,13 @@
         <v>2015</v>
       </c>
       <c r="B331" t="s">
-        <v>283</v>
+        <v>392</v>
       </c>
       <c r="C331">
-        <v>1617640</v>
+        <v>793952</v>
       </c>
       <c r="D331">
-        <v>644677000</v>
+        <v>5995402000</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
@@ -6405,13 +6320,13 @@
         <v>2015</v>
       </c>
       <c r="B332" t="s">
-        <v>418</v>
+        <v>285</v>
       </c>
       <c r="C332">
-        <v>25232</v>
+        <v>794367</v>
       </c>
       <c r="D332">
-        <v>381643000</v>
+        <v>27079000000</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
@@ -6419,13 +6334,13 @@
         <v>2015</v>
       </c>
       <c r="B333" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C333">
-        <v>898293</v>
+        <v>1359841</v>
       </c>
       <c r="D333">
-        <v>17899196000</v>
+        <v>1409557000</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
@@ -6433,13 +6348,13 @@
         <v>2015</v>
       </c>
       <c r="B334" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C334">
-        <v>1037038</v>
+        <v>944314</v>
       </c>
       <c r="D334">
-        <v>7620</v>
+        <v>366602000</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
@@ -6447,13 +6362,13 @@
         <v>2015</v>
       </c>
       <c r="B335" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C335">
-        <v>935494</v>
+        <v>1308606</v>
       </c>
       <c r="D335">
-        <v>1225456000</v>
+        <v>667335000</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
@@ -6461,13 +6376,13 @@
         <v>2015</v>
       </c>
       <c r="B336" t="s">
-        <v>457</v>
+        <v>289</v>
       </c>
       <c r="C336">
-        <v>91142</v>
+        <v>354707</v>
       </c>
       <c r="D336">
-        <v>1225456000</v>
+        <v>2602982000</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
@@ -6475,13 +6390,13 @@
         <v>2015</v>
       </c>
       <c r="B337" t="s">
-        <v>419</v>
+        <v>290</v>
       </c>
       <c r="C337">
-        <v>726958</v>
+        <v>1518832</v>
       </c>
       <c r="D337">
-        <v>7767216000</v>
+        <v>1888000000</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
@@ -6489,13 +6404,13 @@
         <v>2015</v>
       </c>
       <c r="B338" t="s">
-        <v>287</v>
+        <v>393</v>
       </c>
       <c r="C338">
-        <v>91767</v>
+        <v>1475922</v>
       </c>
       <c r="D338">
-        <v>4964369000</v>
+        <v>1405314000</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
@@ -6503,13 +6418,13 @@
         <v>2015</v>
       </c>
       <c r="B339" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C339">
-        <v>1012100</v>
+        <v>14930</v>
       </c>
       <c r="D339">
-        <v>7031500000</v>
+        <v>3838.7</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
@@ -6517,13 +6432,13 @@
         <v>2015</v>
       </c>
       <c r="B340" t="s">
-        <v>420</v>
+        <v>292</v>
       </c>
       <c r="C340">
-        <v>1378992</v>
+        <v>1594109</v>
       </c>
       <c r="D340">
-        <v>1196000000</v>
+        <v>361825000</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
@@ -6531,13 +6446,13 @@
         <v>2015</v>
       </c>
       <c r="B341" t="s">
-        <v>448</v>
+        <v>293</v>
       </c>
       <c r="C341">
-        <v>1370637</v>
+        <v>1439404</v>
       </c>
       <c r="D341">
-        <v>273499000</v>
+        <v>764717000</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
@@ -6545,13 +6460,13 @@
         <v>2015</v>
       </c>
       <c r="B342" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C342">
-        <v>1177394</v>
+        <v>876437</v>
       </c>
       <c r="D342">
-        <v>13338397000</v>
+        <v>1040781000</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
@@ -6559,13 +6474,13 @@
         <v>2015</v>
       </c>
       <c r="B343" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C343">
-        <v>861878</v>
+        <v>1111928</v>
       </c>
       <c r="D343">
-        <v>2985908000</v>
+        <v>901265000</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
@@ -6573,13 +6488,13 @@
         <v>2015</v>
       </c>
       <c r="B344" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C344">
-        <v>105016</v>
+        <v>1056696</v>
       </c>
       <c r="D344">
-        <v>4113239000</v>
+        <v>556371000</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
@@ -6587,13 +6502,13 @@
         <v>2015</v>
       </c>
       <c r="B345" t="s">
-        <v>292</v>
+        <v>394</v>
       </c>
       <c r="C345">
-        <v>1002517</v>
+        <v>1498828</v>
       </c>
       <c r="D345">
-        <v>1931136000</v>
+        <v>797088000</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
@@ -6601,13 +6516,13 @@
         <v>2015</v>
       </c>
       <c r="B346" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C346">
-        <v>701985</v>
+        <v>63276</v>
       </c>
       <c r="D346">
-        <v>4395000000</v>
+        <v>5702613000</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
@@ -6615,13 +6530,13 @@
         <v>2015</v>
       </c>
       <c r="B347" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C347">
-        <v>1142417</v>
+        <v>825542</v>
       </c>
       <c r="D347">
-        <v>252262000</v>
+        <v>483200000</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
@@ -6629,13 +6544,13 @@
         <v>2015</v>
       </c>
       <c r="B348" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C348">
-        <v>1045450</v>
+        <v>46619</v>
       </c>
       <c r="D348">
-        <v>111988000</v>
+        <v>1188648000</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
@@ -6643,13 +6558,13 @@
         <v>2015</v>
       </c>
       <c r="B349" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C349">
-        <v>1636519</v>
+        <v>1487712</v>
       </c>
       <c r="D349">
-        <v>111988000</v>
+        <v>1222840000</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
@@ -6657,13 +6572,13 @@
         <v>2015</v>
       </c>
       <c r="B350" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C350">
-        <v>71691</v>
+        <v>1307954</v>
       </c>
       <c r="D350">
-        <v>1579215000</v>
+        <v>10299000000</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
@@ -6671,13 +6586,13 @@
         <v>2015</v>
       </c>
       <c r="B351" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C351">
-        <v>939767</v>
+        <v>1591698</v>
       </c>
       <c r="D351">
-        <v>37172000</v>
+        <v>152698000</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
@@ -6685,13 +6600,13 @@
         <v>2015</v>
       </c>
       <c r="B352" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C352">
-        <v>944695</v>
+        <v>46765</v>
       </c>
       <c r="D352">
-        <v>5034000000</v>
+        <v>3165441000</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
@@ -6699,13 +6614,13 @@
         <v>2015</v>
       </c>
       <c r="B353" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C353">
-        <v>1214816</v>
+        <v>885550</v>
       </c>
       <c r="D353">
-        <v>4130309000</v>
+        <v>825300000</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
@@ -6713,13 +6628,13 @@
         <v>2015</v>
       </c>
       <c r="B354" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C354">
-        <v>350797</v>
+        <v>1308547</v>
       </c>
       <c r="D354">
-        <v>1403563000</v>
+        <v>970638000</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
@@ -6727,13 +6642,13 @@
         <v>2015</v>
       </c>
       <c r="B355" t="s">
-        <v>421</v>
+        <v>306</v>
       </c>
       <c r="C355">
-        <v>793952</v>
+        <v>25445</v>
       </c>
       <c r="D355">
-        <v>5995402000</v>
+        <v>2740500000</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
@@ -6741,13 +6656,13 @@
         <v>2015</v>
       </c>
       <c r="B356" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C356">
-        <v>794367</v>
+        <v>853816</v>
       </c>
       <c r="D356">
-        <v>27079000000</v>
+        <v>3321091000</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
@@ -6755,13 +6670,13 @@
         <v>2015</v>
       </c>
       <c r="B357" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C357">
-        <v>1359841</v>
+        <v>1311370</v>
       </c>
       <c r="D357">
-        <v>1409557000</v>
+        <v>2404767000</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
@@ -6769,13 +6684,13 @@
         <v>2015</v>
       </c>
       <c r="B358" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C358">
-        <v>944314</v>
+        <v>70866</v>
       </c>
       <c r="D358">
-        <v>366602000</v>
+        <v>6373000000</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
@@ -6783,13 +6698,13 @@
         <v>2015</v>
       </c>
       <c r="B359" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C359">
-        <v>1308606</v>
+        <v>1273813</v>
       </c>
       <c r="D359">
-        <v>667335000</v>
+        <v>2207000000</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
@@ -6797,13 +6712,13 @@
         <v>2015</v>
       </c>
       <c r="B360" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C360">
-        <v>354707</v>
+        <v>850209</v>
       </c>
       <c r="D360">
-        <v>2602982000</v>
+        <v>7412000000</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
@@ -6811,13 +6726,13 @@
         <v>2015</v>
       </c>
       <c r="B361" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C361">
-        <v>1518832</v>
+        <v>1082554</v>
       </c>
       <c r="D361">
-        <v>1888000000</v>
+        <v>1465761000</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -6825,13 +6740,13 @@
         <v>2015</v>
       </c>
       <c r="B362" t="s">
-        <v>422</v>
+        <v>313</v>
       </c>
       <c r="C362">
-        <v>1475922</v>
+        <v>1274494</v>
       </c>
       <c r="D362">
-        <v>1405314000</v>
+        <v>3578995000</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
@@ -6839,13 +6754,13 @@
         <v>2015</v>
       </c>
       <c r="B363" t="s">
-        <v>308</v>
+        <v>417</v>
       </c>
       <c r="C363">
-        <v>14930</v>
+        <v>1474432</v>
       </c>
       <c r="D363">
-        <v>3838.7</v>
+        <v>440333000</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
@@ -6853,13 +6768,13 @@
         <v>2015</v>
       </c>
       <c r="B364" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C364">
-        <v>1594109</v>
+        <v>1101215</v>
       </c>
       <c r="D364">
-        <v>361825000</v>
+        <v>6439746000</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
@@ -6867,13 +6782,13 @@
         <v>2015</v>
       </c>
       <c r="B365" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C365">
-        <v>1439404</v>
+        <v>1180262</v>
       </c>
       <c r="D365">
-        <v>764717000</v>
+        <v>4469000000</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
@@ -6881,13 +6796,13 @@
         <v>2015</v>
       </c>
       <c r="B366" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C366">
-        <v>876437</v>
+        <v>1206264</v>
       </c>
       <c r="D366">
-        <v>1040781000</v>
+        <v>767300000</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
@@ -6895,13 +6810,13 @@
         <v>2015</v>
       </c>
       <c r="B367" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C367">
-        <v>1689796</v>
+        <v>30697</v>
       </c>
       <c r="D367">
-        <v>1040781000</v>
+        <v>1870297000</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
@@ -6909,13 +6824,13 @@
         <v>2015</v>
       </c>
       <c r="B368" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C368">
-        <v>1111928</v>
+        <v>1420302</v>
       </c>
       <c r="D368">
-        <v>901265000</v>
+        <v>271600000</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
@@ -6923,13 +6838,13 @@
         <v>2015</v>
       </c>
       <c r="B369" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C369">
-        <v>1056696</v>
+        <v>39911</v>
       </c>
       <c r="D369">
-        <v>556371000</v>
+        <v>15797000000</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
@@ -6937,13 +6852,13 @@
         <v>2015</v>
       </c>
       <c r="B370" t="s">
-        <v>423</v>
+        <v>320</v>
       </c>
       <c r="C370">
-        <v>1498828</v>
+        <v>906709</v>
       </c>
       <c r="D370">
-        <v>797088000</v>
+        <v>230784000</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
@@ -6951,13 +6866,13 @@
         <v>2015</v>
       </c>
       <c r="B371" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C371">
-        <v>63276</v>
+        <v>883984</v>
       </c>
       <c r="D371">
-        <v>5702613000</v>
+        <v>341668000</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
@@ -6965,13 +6880,13 @@
         <v>2015</v>
       </c>
       <c r="B372" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C372">
-        <v>825542</v>
+        <v>8858</v>
       </c>
       <c r="D372">
-        <v>483200000</v>
+        <v>27924657000</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -6979,13 +6894,13 @@
         <v>2015</v>
       </c>
       <c r="B373" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C373">
-        <v>46619</v>
+        <v>21510</v>
       </c>
       <c r="D373">
-        <v>1188648000</v>
+        <v>802460000</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -6993,13 +6908,13 @@
         <v>2015</v>
       </c>
       <c r="B374" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C374">
-        <v>1699150</v>
+        <v>1045309</v>
       </c>
       <c r="D374">
-        <v>1188648000</v>
+        <v>3051500000</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
@@ -7007,13 +6922,13 @@
         <v>2015</v>
       </c>
       <c r="B375" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C375">
-        <v>1487712</v>
+        <v>1046311</v>
       </c>
       <c r="D375">
-        <v>1222840000</v>
+        <v>859878000</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -7021,13 +6936,13 @@
         <v>2015</v>
       </c>
       <c r="B376" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C376">
-        <v>1307954</v>
+        <v>1420800</v>
       </c>
       <c r="D376">
-        <v>10299000000</v>
+        <v>3967053000</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
@@ -7035,13 +6950,13 @@
         <v>2015</v>
       </c>
       <c r="B377" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C377">
-        <v>1591698</v>
+        <v>704051</v>
       </c>
       <c r="D377">
-        <v>152698000</v>
+        <v>2819106</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
@@ -7049,13 +6964,13 @@
         <v>2015</v>
       </c>
       <c r="B378" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C378">
-        <v>46765</v>
+        <v>1385280</v>
       </c>
       <c r="D378">
-        <v>3165441000</v>
+        <v>2852609000</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
@@ -7063,13 +6978,13 @@
         <v>2015</v>
       </c>
       <c r="B379" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C379">
-        <v>1685040</v>
+        <v>860546</v>
       </c>
       <c r="D379">
-        <v>3165441000</v>
+        <v>625466000</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
@@ -7077,13 +6992,13 @@
         <v>2015</v>
       </c>
       <c r="B380" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C380">
-        <v>885550</v>
+        <v>912242</v>
       </c>
       <c r="D380">
-        <v>825300000</v>
+        <v>1288149000</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -7091,13 +7006,13 @@
         <v>2015</v>
       </c>
       <c r="B381" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C381">
-        <v>1308547</v>
+        <v>1013857</v>
       </c>
       <c r="D381">
-        <v>970638000</v>
+        <v>682695000</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
@@ -7105,13 +7020,13 @@
         <v>2015</v>
       </c>
       <c r="B382" t="s">
-        <v>326</v>
+        <v>395</v>
       </c>
       <c r="C382">
-        <v>25445</v>
+        <v>1289790</v>
       </c>
       <c r="D382">
-        <v>2740500000</v>
+        <v>1639250000</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
@@ -7119,13 +7034,13 @@
         <v>2015</v>
       </c>
       <c r="B383" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C383">
-        <v>853816</v>
+        <v>1468174</v>
       </c>
       <c r="D383">
-        <v>3321091000</v>
+        <v>4328000000</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
@@ -7133,13 +7048,13 @@
         <v>2015</v>
       </c>
       <c r="B384" t="s">
-        <v>328</v>
+        <v>418</v>
       </c>
       <c r="C384">
-        <v>1311370</v>
+        <v>1370880</v>
       </c>
       <c r="D384">
-        <v>2404767000</v>
+        <v>622967000</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
@@ -7147,13 +7062,13 @@
         <v>2015</v>
       </c>
       <c r="B385" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C385">
-        <v>70866</v>
+        <v>1003078</v>
       </c>
       <c r="D385">
-        <v>6373000000</v>
+        <v>2910379000</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
@@ -7161,13 +7076,13 @@
         <v>2015</v>
       </c>
       <c r="B386" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C386">
-        <v>1273813</v>
+        <v>1448056</v>
       </c>
       <c r="D386">
-        <v>2207000000</v>
+        <v>110391000</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
@@ -7175,13 +7090,13 @@
         <v>2015</v>
       </c>
       <c r="B387" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C387">
-        <v>850209</v>
+        <v>1289419</v>
       </c>
       <c r="D387">
-        <v>7412000000</v>
+        <v>788800000</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
@@ -7189,13 +7104,13 @@
         <v>2015</v>
       </c>
       <c r="B388" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C388">
-        <v>1082554</v>
+        <v>1360901</v>
       </c>
       <c r="D388">
-        <v>1465761000</v>
+        <v>1240248000</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
@@ -7203,13 +7118,13 @@
         <v>2015</v>
       </c>
       <c r="B389" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="C389">
-        <v>1274494</v>
+        <v>1526520</v>
       </c>
       <c r="D389">
-        <v>3578995000</v>
+        <v>1492000000</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
@@ -7217,13 +7132,13 @@
         <v>2015</v>
       </c>
       <c r="B390" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="C390">
-        <v>1474432</v>
+        <v>701374</v>
       </c>
       <c r="D390">
-        <v>440333000</v>
+        <v>1263938000</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
@@ -7231,13 +7146,13 @@
         <v>2015</v>
       </c>
       <c r="B391" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C391">
-        <v>1101215</v>
+        <v>1451505</v>
       </c>
       <c r="D391">
-        <v>6439746000</v>
+        <v>7386000000</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
@@ -7245,13 +7160,13 @@
         <v>2015</v>
       </c>
       <c r="B392" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C392">
-        <v>1180262</v>
+        <v>1282637</v>
       </c>
       <c r="D392">
-        <v>4469000000</v>
+        <v>2140830000</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
@@ -7259,13 +7174,13 @@
         <v>2015</v>
       </c>
       <c r="B393" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C393">
-        <v>1206264</v>
+        <v>1089063</v>
       </c>
       <c r="D393">
-        <v>767300000</v>
+        <v>7270965000</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
@@ -7273,13 +7188,13 @@
         <v>2015</v>
       </c>
       <c r="B394" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C394">
-        <v>30697</v>
+        <v>1124198</v>
       </c>
       <c r="D394">
-        <v>1870297000</v>
+        <v>18114048000</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -7287,13 +7202,13 @@
         <v>2015</v>
       </c>
       <c r="B395" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C395">
-        <v>1420302</v>
+        <v>74303</v>
       </c>
       <c r="D395">
-        <v>271600000</v>
+        <v>2854400000</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
@@ -7301,13 +7216,13 @@
         <v>2015</v>
       </c>
       <c r="B396" t="s">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="C396">
-        <v>39911</v>
+        <v>101830</v>
       </c>
       <c r="D396">
-        <v>15797000000</v>
+        <v>18602000000</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -7315,13 +7230,13 @@
         <v>2015</v>
       </c>
       <c r="B397" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C397">
-        <v>906709</v>
+        <v>1320695</v>
       </c>
       <c r="D397">
-        <v>230784000</v>
+        <v>3206405000</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
@@ -7329,13 +7244,13 @@
         <v>2015</v>
       </c>
       <c r="B398" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C398">
-        <v>883984</v>
+        <v>1252849</v>
       </c>
       <c r="D398">
-        <v>341668000</v>
+        <v>566065000</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
@@ -7343,13 +7258,13 @@
         <v>2015</v>
       </c>
       <c r="B399" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C399">
-        <v>8858</v>
+        <v>849869</v>
       </c>
       <c r="D399">
-        <v>27924657000</v>
+        <v>3763971000</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
@@ -7357,13 +7272,13 @@
         <v>2015</v>
       </c>
       <c r="B400" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C400">
-        <v>21510</v>
+        <v>16040</v>
       </c>
       <c r="D400">
-        <v>802460000</v>
+        <v>2871000000</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
@@ -7371,13 +7286,13 @@
         <v>2015</v>
       </c>
       <c r="B401" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C401">
-        <v>1045309</v>
+        <v>1627223</v>
       </c>
       <c r="D401">
-        <v>3051500000</v>
+        <v>5717000000</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
@@ -7385,13 +7300,13 @@
         <v>2015</v>
       </c>
       <c r="B402" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="C402">
-        <v>1046311</v>
+        <v>350698</v>
       </c>
       <c r="D402">
-        <v>859878000</v>
+        <v>20862000000</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
@@ -7399,13 +7314,13 @@
         <v>2015</v>
       </c>
       <c r="B403" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C403">
-        <v>1507079</v>
+        <v>104889</v>
       </c>
       <c r="D403">
-        <v>859878000</v>
+        <v>616367000</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
@@ -7413,13 +7328,13 @@
         <v>2015</v>
       </c>
       <c r="B404" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C404">
-        <v>1420800</v>
+        <v>1262823</v>
       </c>
       <c r="D404">
-        <v>3967053000</v>
+        <v>4463336000</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
@@ -7427,13 +7342,13 @@
         <v>2015</v>
       </c>
       <c r="B405" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C405">
-        <v>704051</v>
+        <v>99780</v>
       </c>
       <c r="D405">
-        <v>2819106</v>
+        <v>6392700000</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
@@ -7441,13 +7356,13 @@
         <v>2015</v>
       </c>
       <c r="B406" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="C406">
-        <v>1385280</v>
+        <v>1091907</v>
       </c>
       <c r="D406">
-        <v>2852609000</v>
+        <v>658768000</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
@@ -7458,10 +7373,10 @@
         <v>350</v>
       </c>
       <c r="C407">
-        <v>860546</v>
+        <v>929008</v>
       </c>
       <c r="D407">
-        <v>625466000</v>
+        <v>7518487000</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
@@ -7472,10 +7387,10 @@
         <v>351</v>
       </c>
       <c r="C408">
-        <v>912242</v>
+        <v>1541401</v>
       </c>
       <c r="D408">
-        <v>1288149000</v>
+        <v>127583000</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
@@ -7486,10 +7401,10 @@
         <v>352</v>
       </c>
       <c r="C409">
-        <v>717423</v>
+        <v>910406</v>
       </c>
       <c r="D409">
-        <v>1288149000</v>
+        <v>2688515000</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
@@ -7500,10 +7415,10 @@
         <v>353</v>
       </c>
       <c r="C410">
-        <v>1013857</v>
+        <v>1509991</v>
       </c>
       <c r="D410">
-        <v>682695000</v>
+        <v>471556000</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
@@ -7511,13 +7426,13 @@
         <v>2015</v>
       </c>
       <c r="B411" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="C411">
-        <v>1289790</v>
+        <v>1577916</v>
       </c>
       <c r="D411">
-        <v>1639250000</v>
+        <v>1007029000</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
@@ -7525,13 +7440,13 @@
         <v>2015</v>
       </c>
       <c r="B412" t="s">
-        <v>425</v>
+        <v>354</v>
       </c>
       <c r="C412">
-        <v>1345105</v>
+        <v>912752</v>
       </c>
       <c r="D412">
-        <v>1639250000</v>
+        <v>2219136000</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
@@ -7539,13 +7454,13 @@
         <v>2015</v>
       </c>
       <c r="B413" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C413">
-        <v>1468174</v>
+        <v>912615</v>
       </c>
       <c r="D413">
-        <v>4328000000</v>
+        <v>3445134000</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
@@ -7553,13 +7468,13 @@
         <v>2015</v>
       </c>
       <c r="B414" t="s">
-        <v>450</v>
+        <v>356</v>
       </c>
       <c r="C414">
-        <v>1370880</v>
+        <v>1094831</v>
       </c>
       <c r="D414">
-        <v>622967000</v>
+        <v>2575437000</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
@@ -7567,13 +7482,13 @@
         <v>2015</v>
       </c>
       <c r="B415" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C415">
-        <v>1003078</v>
+        <v>1514991</v>
       </c>
       <c r="D415">
-        <v>2910379000</v>
+        <v>2580935000</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
@@ -7581,13 +7496,13 @@
         <v>2015</v>
       </c>
       <c r="B416" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C416">
-        <v>1448056</v>
+        <v>889900</v>
       </c>
       <c r="D416">
-        <v>110391000</v>
+        <v>1891277000</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
@@ -7595,13 +7510,13 @@
         <v>2015</v>
       </c>
       <c r="B417" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C417">
-        <v>1289419</v>
+        <v>1163302</v>
       </c>
       <c r="D417">
-        <v>788800000</v>
+        <v>11574000000</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.35">
@@ -7609,13 +7524,13 @@
         <v>2015</v>
       </c>
       <c r="B418" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C418">
-        <v>1360901</v>
+        <v>64996</v>
       </c>
       <c r="D418">
-        <v>1240248000</v>
+        <v>3009300000</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
@@ -7623,13 +7538,13 @@
         <v>2015</v>
       </c>
       <c r="B419" t="s">
-        <v>451</v>
+        <v>361</v>
       </c>
       <c r="C419">
-        <v>1526520</v>
+        <v>21175</v>
       </c>
       <c r="D419">
-        <v>1492000000</v>
+        <v>9101000000</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
@@ -7637,13 +7552,13 @@
         <v>2015</v>
       </c>
       <c r="B420" t="s">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="C420">
-        <v>701374</v>
+        <v>904163</v>
       </c>
       <c r="D420">
-        <v>1263938000</v>
+        <v>3017455000</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
@@ -7651,13 +7566,13 @@
         <v>2015</v>
       </c>
       <c r="B421" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C421">
-        <v>1451505</v>
+        <v>895126</v>
       </c>
       <c r="D421">
-        <v>7386000000</v>
+        <v>12764000000</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
@@ -7665,478 +7580,19 @@
         <v>2015</v>
       </c>
       <c r="B422" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C422">
-        <v>1282637</v>
+        <v>315852</v>
       </c>
       <c r="D422">
-        <v>2140830000</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A423">
-        <v>2015</v>
-      </c>
-      <c r="B423" t="s">
-        <v>361</v>
-      </c>
-      <c r="C423">
-        <v>1089063</v>
-      </c>
-      <c r="D423">
-        <v>7270965000</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A424">
-        <v>2015</v>
-      </c>
-      <c r="B424" t="s">
-        <v>362</v>
-      </c>
-      <c r="C424">
-        <v>1639300</v>
-      </c>
-      <c r="D424">
-        <v>7270965000</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A425">
-        <v>2015</v>
-      </c>
-      <c r="B425" t="s">
-        <v>363</v>
-      </c>
-      <c r="C425">
-        <v>1124198</v>
-      </c>
-      <c r="D425">
-        <v>18114048000</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A426">
-        <v>2015</v>
-      </c>
-      <c r="B426" t="s">
-        <v>364</v>
-      </c>
-      <c r="C426">
-        <v>74303</v>
-      </c>
-      <c r="D426">
-        <v>2854400000</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A427">
-        <v>2015</v>
-      </c>
-      <c r="B427" t="s">
-        <v>426</v>
-      </c>
-      <c r="C427">
-        <v>101830</v>
-      </c>
-      <c r="D427">
-        <v>18602000000</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A428">
-        <v>2015</v>
-      </c>
-      <c r="B428" t="s">
-        <v>365</v>
-      </c>
-      <c r="C428">
-        <v>1320695</v>
-      </c>
-      <c r="D428">
-        <v>3206405000</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A429">
-        <v>2015</v>
-      </c>
-      <c r="B429" t="s">
-        <v>366</v>
-      </c>
-      <c r="C429">
-        <v>1252849</v>
-      </c>
-      <c r="D429">
-        <v>566065000</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A430">
-        <v>2015</v>
-      </c>
-      <c r="B430" t="s">
-        <v>367</v>
-      </c>
-      <c r="C430">
-        <v>849869</v>
-      </c>
-      <c r="D430">
-        <v>3763971000</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A431">
-        <v>2015</v>
-      </c>
-      <c r="B431" t="s">
-        <v>368</v>
-      </c>
-      <c r="C431">
-        <v>16040</v>
-      </c>
-      <c r="D431">
-        <v>2871000000</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A432">
-        <v>2015</v>
-      </c>
-      <c r="B432" t="s">
-        <v>369</v>
-      </c>
-      <c r="C432">
-        <v>1627223</v>
-      </c>
-      <c r="D432">
-        <v>5717000000</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A433">
-        <v>2015</v>
-      </c>
-      <c r="B433" t="s">
-        <v>427</v>
-      </c>
-      <c r="C433">
-        <v>350698</v>
-      </c>
-      <c r="D433">
-        <v>20862000000</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A434">
-        <v>2015</v>
-      </c>
-      <c r="B434" t="s">
-        <v>370</v>
-      </c>
-      <c r="C434">
-        <v>104889</v>
-      </c>
-      <c r="D434">
-        <v>616367000</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A435">
-        <v>2015</v>
-      </c>
-      <c r="B435" t="s">
-        <v>371</v>
-      </c>
-      <c r="C435">
-        <v>1262823</v>
-      </c>
-      <c r="D435">
-        <v>4463336000</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A436">
-        <v>2015</v>
-      </c>
-      <c r="B436" t="s">
-        <v>372</v>
-      </c>
-      <c r="C436">
-        <v>99780</v>
-      </c>
-      <c r="D436">
-        <v>6392700000</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A437">
-        <v>2015</v>
-      </c>
-      <c r="B437" t="s">
-        <v>428</v>
-      </c>
-      <c r="C437">
-        <v>1091907</v>
-      </c>
-      <c r="D437">
-        <v>658768000</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A438">
-        <v>2015</v>
-      </c>
-      <c r="B438" t="s">
-        <v>373</v>
-      </c>
-      <c r="C438">
-        <v>929008</v>
-      </c>
-      <c r="D438">
-        <v>7518487000</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A439">
-        <v>2015</v>
-      </c>
-      <c r="B439" t="s">
-        <v>374</v>
-      </c>
-      <c r="C439">
-        <v>1541401</v>
-      </c>
-      <c r="D439">
-        <v>127583000</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A440">
-        <v>2015</v>
-      </c>
-      <c r="B440" t="s">
-        <v>375</v>
-      </c>
-      <c r="C440">
-        <v>910406</v>
-      </c>
-      <c r="D440">
-        <v>2688515000</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A441">
-        <v>2015</v>
-      </c>
-      <c r="B441" t="s">
-        <v>376</v>
-      </c>
-      <c r="C441">
-        <v>1509991</v>
-      </c>
-      <c r="D441">
-        <v>471556000</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A442">
-        <v>2015</v>
-      </c>
-      <c r="B442" t="s">
-        <v>429</v>
-      </c>
-      <c r="C442">
-        <v>1577916</v>
-      </c>
-      <c r="D442">
-        <v>1007029000</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A443">
-        <v>2015</v>
-      </c>
-      <c r="B443" t="s">
-        <v>377</v>
-      </c>
-      <c r="C443">
-        <v>912752</v>
-      </c>
-      <c r="D443">
-        <v>2219136000</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A444">
-        <v>2015</v>
-      </c>
-      <c r="B444" t="s">
-        <v>378</v>
-      </c>
-      <c r="C444">
-        <v>912615</v>
-      </c>
-      <c r="D444">
-        <v>3445134000</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A445">
-        <v>2015</v>
-      </c>
-      <c r="B445" t="s">
-        <v>379</v>
-      </c>
-      <c r="C445">
-        <v>1094831</v>
-      </c>
-      <c r="D445">
-        <v>2575437000</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A446">
-        <v>2015</v>
-      </c>
-      <c r="B446" t="s">
-        <v>380</v>
-      </c>
-      <c r="C446">
-        <v>1514991</v>
-      </c>
-      <c r="D446">
-        <v>2580935000</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A447">
-        <v>2015</v>
-      </c>
-      <c r="B447" t="s">
-        <v>381</v>
-      </c>
-      <c r="C447">
-        <v>889900</v>
-      </c>
-      <c r="D447">
-        <v>1891277000</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A448">
-        <v>2015</v>
-      </c>
-      <c r="B448" t="s">
-        <v>382</v>
-      </c>
-      <c r="C448">
-        <v>1163302</v>
-      </c>
-      <c r="D448">
-        <v>11574000000</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A449">
-        <v>2015</v>
-      </c>
-      <c r="B449" t="s">
-        <v>383</v>
-      </c>
-      <c r="C449">
-        <v>64996</v>
-      </c>
-      <c r="D449">
-        <v>3009300000</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A450">
-        <v>2015</v>
-      </c>
-      <c r="B450" t="s">
-        <v>384</v>
-      </c>
-      <c r="C450">
-        <v>21175</v>
-      </c>
-      <c r="D450">
-        <v>9101000000</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A451">
-        <v>2015</v>
-      </c>
-      <c r="B451" t="s">
-        <v>385</v>
-      </c>
-      <c r="C451">
-        <v>1692063</v>
-      </c>
-      <c r="D451">
-        <v>9101000000</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A452">
-        <v>2015</v>
-      </c>
-      <c r="B452" t="s">
-        <v>386</v>
-      </c>
-      <c r="C452">
-        <v>904163</v>
-      </c>
-      <c r="D452">
-        <v>3017455000</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A453">
-        <v>2015</v>
-      </c>
-      <c r="B453" t="s">
-        <v>387</v>
-      </c>
-      <c r="C453">
-        <v>895126</v>
-      </c>
-      <c r="D453">
-        <v>12764000000</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A454">
-        <v>2015</v>
-      </c>
-      <c r="B454" t="s">
-        <v>388</v>
-      </c>
-      <c r="C454">
-        <v>315852</v>
-      </c>
-      <c r="D454">
         <v>410727000</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A455">
-        <v>2015</v>
-      </c>
-      <c r="B455" t="s">
-        <v>389</v>
-      </c>
-      <c r="C455">
-        <v>1658566</v>
-      </c>
-      <c r="D455">
-        <v>410727000</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>